--- a/Statistics Use Cases/Salaries_UC03.xlsx
+++ b/Statistics Use Cases/Salaries_UC03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SarathBabuMallam\Desktop\Data science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFC219D-46DA-4CD3-810E-96A34B0286D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8B9348-C461-4855-A23B-A4041A90E650}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{9382F2C2-DA09-48B6-95DB-16559EE4300C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9382F2C2-DA09-48B6-95DB-16559EE4300C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,8 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
     <pivotCache cacheId="1" r:id="rId6"/>
-    <pivotCache cacheId="18" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="6" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="81">
   <si>
     <t>Player</t>
   </si>
@@ -196,28 +197,7 @@
     <t>Normal Distribution</t>
   </si>
   <si>
-    <t>Bin</t>
-  </si>
-  <si>
-    <t>More</t>
-  </si>
-  <si>
-    <t>3000-3099</t>
-  </si>
-  <si>
-    <t>3100-3199</t>
-  </si>
-  <si>
-    <t>3800-3899</t>
-  </si>
-  <si>
-    <t>3900-3999</t>
-  </si>
-  <si>
     <t>Salary Range</t>
-  </si>
-  <si>
-    <t>4000-4099</t>
   </si>
   <si>
     <t>Frequency Distribution</t>
@@ -269,6 +249,45 @@
   </si>
   <si>
     <t>Sum of Normal Distribution</t>
+  </si>
+  <si>
+    <t>Count of Data</t>
+  </si>
+  <si>
+    <t>Sum of Normal Distribution Points</t>
+  </si>
+  <si>
+    <t>2975-3075</t>
+  </si>
+  <si>
+    <t>3075-3175</t>
+  </si>
+  <si>
+    <t>3175-3275</t>
+  </si>
+  <si>
+    <t>3275-3375</t>
+  </si>
+  <si>
+    <t>3375-3475</t>
+  </si>
+  <si>
+    <t>3475-3575</t>
+  </si>
+  <si>
+    <t>3575-3675</t>
+  </si>
+  <si>
+    <t>3675-3775</t>
+  </si>
+  <si>
+    <t>3775-3875</t>
+  </si>
+  <si>
+    <t>3875-3975</t>
+  </si>
+  <si>
+    <t>&gt;3975</t>
   </si>
 </sst>
 </file>
@@ -370,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -391,17 +410,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1509,37 +1519,37 @@
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3000-3099</c:v>
+                  <c:v>2975-3075</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3100-3199</c:v>
+                  <c:v>3075-3175</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3200-3299</c:v>
+                  <c:v>3175-3275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3300-3399</c:v>
+                  <c:v>3275-3375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3400-3499</c:v>
+                  <c:v>3375-3475</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500-3599</c:v>
+                  <c:v>3475-3575</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3600-3699</c:v>
+                  <c:v>3575-3675</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3700-3799</c:v>
+                  <c:v>3675-3775</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3800-3899</c:v>
+                  <c:v>3775-3875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3900-3999</c:v>
+                  <c:v>3875-3975</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4000-4099</c:v>
+                  <c:v>&gt;3975</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1551,13 +1561,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
@@ -1566,22 +1576,22 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1651,37 +1661,37 @@
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3000-3099</c:v>
+                  <c:v>2975-3075</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3100-3199</c:v>
+                  <c:v>3075-3175</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3200-3299</c:v>
+                  <c:v>3175-3275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3300-3399</c:v>
+                  <c:v>3275-3375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3400-3499</c:v>
+                  <c:v>3375-3475</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500-3599</c:v>
+                  <c:v>3475-3575</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3600-3699</c:v>
+                  <c:v>3575-3675</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3700-3799</c:v>
+                  <c:v>3675-3775</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3800-3899</c:v>
+                  <c:v>3775-3875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3900-3999</c:v>
+                  <c:v>3875-3975</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4000-4099</c:v>
+                  <c:v>&gt;3975</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1693,37 +1703,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>6.0831257148214813E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>2.5082256899158829E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>6.2446493280334664E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92</c:v>
+                  <c:v>1.4105934422120329E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>172</c:v>
+                  <c:v>2.1083305090510214E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>227</c:v>
+                  <c:v>2.0164919269584705E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>205</c:v>
+                  <c:v>1.7275568257543915E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>145</c:v>
+                  <c:v>8.7511822412340064E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>76</c:v>
+                  <c:v>4.007397569868276E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33</c:v>
+                  <c:v>5.1629169318270903E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>1.29312842305395E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7310,6 +7320,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18885788115619334"/>
+          <c:y val="9.3814122090954272E-3"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8045,6 +8063,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="170239583"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -11691,16 +11710,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13883,6 +13902,136 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Sarath Babu Mallam" refreshedDate="43894.3376943287" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="91" xr:uid="{702B7439-3ABE-4015-99C6-2F70B3FC2CEA}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="N9:O100" sheet="Sheet2"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Data" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2975.456931525403" maxValue="3910.6344547796907" count="91">
+        <n v="2975.456931525403"/>
+        <n v="2985.8477928948951"/>
+        <n v="2996.2386542643872"/>
+        <n v="3006.6295156338792"/>
+        <n v="3017.0203770033713"/>
+        <n v="3027.4112383728634"/>
+        <n v="3037.8020997423555"/>
+        <n v="3048.1929611118476"/>
+        <n v="3058.5838224813397"/>
+        <n v="3068.9746838508318"/>
+        <n v="3079.3655452203238"/>
+        <n v="3089.7564065898159"/>
+        <n v="3100.147267959308"/>
+        <n v="3110.5381293288001"/>
+        <n v="3120.9289906982922"/>
+        <n v="3131.3198520677843"/>
+        <n v="3141.7107134372764"/>
+        <n v="3152.1015748067684"/>
+        <n v="3162.4924361762605"/>
+        <n v="3172.8832975457526"/>
+        <n v="3183.2741589152447"/>
+        <n v="3193.6650202847368"/>
+        <n v="3204.0558816542289"/>
+        <n v="3214.446743023721"/>
+        <n v="3224.837604393213"/>
+        <n v="3235.2284657627051"/>
+        <n v="3245.6193271321972"/>
+        <n v="3256.0101885016893"/>
+        <n v="3266.4010498711814"/>
+        <n v="3276.7919112406735"/>
+        <n v="3287.1827726101656"/>
+        <n v="3297.5736339796576"/>
+        <n v="3307.9644953491497"/>
+        <n v="3318.3553567186418"/>
+        <n v="3328.7462180881339"/>
+        <n v="3339.137079457626"/>
+        <n v="3349.5279408271181"/>
+        <n v="3359.9188021966102"/>
+        <n v="3370.3096635661022"/>
+        <n v="3380.7005249355943"/>
+        <n v="3391.0913863050864"/>
+        <n v="3401.4822476745785"/>
+        <n v="3411.8731090440706"/>
+        <n v="3422.2639704135627"/>
+        <n v="3432.6548317830548"/>
+        <n v="3443.0456931525468"/>
+        <n v="3453.4365545220389"/>
+        <n v="3463.827415891531"/>
+        <n v="3474.2182772610231"/>
+        <n v="3484.6091386305152"/>
+        <n v="3495.0000000000073"/>
+        <n v="3505.3908613694994"/>
+        <n v="3515.7817227389914"/>
+        <n v="3526.1725841084835"/>
+        <n v="3536.5634454779756"/>
+        <n v="3546.9543068474677"/>
+        <n v="3557.3451682169598"/>
+        <n v="3567.7360295864519"/>
+        <n v="3578.126890955944"/>
+        <n v="3588.517752325436"/>
+        <n v="3598.9086136949281"/>
+        <n v="3609.2994750644202"/>
+        <n v="3619.6903364339123"/>
+        <n v="3630.0811978034044"/>
+        <n v="3640.4720591728965"/>
+        <n v="3650.8629205423886"/>
+        <n v="3661.2537819118807"/>
+        <n v="3671.6446432813727"/>
+        <n v="3682.0355046508648"/>
+        <n v="3692.4263660203569"/>
+        <n v="3702.817227389849"/>
+        <n v="3713.2080887593411"/>
+        <n v="3723.5989501288332"/>
+        <n v="3733.9898114983253"/>
+        <n v="3744.3806728678173"/>
+        <n v="3754.7715342373094"/>
+        <n v="3765.1623956068015"/>
+        <n v="3775.5532569762936"/>
+        <n v="3785.9441183457857"/>
+        <n v="3796.3349797152778"/>
+        <n v="3806.7258410847699"/>
+        <n v="3817.1167024542619"/>
+        <n v="3827.507563823754"/>
+        <n v="3837.8984251932461"/>
+        <n v="3848.2892865627382"/>
+        <n v="3858.6801479322303"/>
+        <n v="3869.0710093017224"/>
+        <n v="3879.4618706712145"/>
+        <n v="3889.8527320407065"/>
+        <n v="3900.2435934101986"/>
+        <n v="3910.6344547796907"/>
+      </sharedItems>
+      <fieldGroup base="0">
+        <rangePr autoStart="0" autoEnd="0" startNum="2975" endNum="3910" groupInterval="100"/>
+        <groupItems count="12">
+          <s v="&lt;2975"/>
+          <s v="2975-3075"/>
+          <s v="3075-3175"/>
+          <s v="3175-3275"/>
+          <s v="3275-3375"/>
+          <s v="3375-3475"/>
+          <s v="3475-3575"/>
+          <s v="3575-3675"/>
+          <s v="3675-3775"/>
+          <s v="3775-3875"/>
+          <s v="3875-3975"/>
+          <s v="&gt;3975"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Normal Distribution Points" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.5590843267046971E-5" maxValue="2.3036142984608336E-3"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="60">
   <r>
@@ -18123,7 +18272,467 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="91">
+  <r>
+    <x v="0"/>
+    <n v="2.5590843267046971E-5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="3.0582703456296895E-5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="3.6416960088310806E-5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4.320838625227376E-5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="5.1082123514096381E-5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="6.0173653235442668E-5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="7.0628560518710252E-5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="8.2602058590544301E-5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="9.6258242187653042E-5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="1.1176904037177302E-4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="1.2931284230542116E-4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="1.4907277397071422E-4"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="1.7123460967967072E-4"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="1.959843095324229E-4"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="2.2350518270468982E-4"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="2.5397468650423737E-4"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="2.8756088238047865E-4"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="3.2441858228708198E-4"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="3.6468523170156739E-4"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="4.0847658884959838E-4"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="4.5588227285582697E-4"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="5.0696126618731633E-4"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="5.6173746837059673E-4"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="6.2019540802749963E-4"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="6.8227622826247001E-4"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="7.4787406583730787E-4"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="8.168329469210885E-4"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="8.8894432110106665E-4"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="9.6394535047029375E-4"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="1.0415180617652979E-3"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="1.1212894566374929E-3"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="1.2028326582744107E-3"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="1.2856691519655271E-3"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="1.3692721532150372E-3"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <n v="1.4530711101793565E-3"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <n v="1.5364573182354295E-3"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <n v="1.6187905941815199E-3"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <n v="1.6994069268545474E-3"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <n v="1.7776269908117096E-3"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <n v="1.8527653812026633E-3"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <n v="1.9241404020854487E-3"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <n v="1.9910842182058646E-3"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <n v="2.0529531625733933E-3"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <n v="2.10913797980938E-3"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <n v="2.1590737788358088E-3"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <n v="2.2022494684433049E-3"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <n v="2.2382164558353841E-3"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <n v="2.2665964013700874E-3"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <n v="2.287087842148879E-3"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <n v="2.2994715223406672E-3"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <n v="2.3036142984608336E-3"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <n v="2.2994715223406555E-3"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <n v="2.2870878421488564E-3"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <n v="2.2665964013700531E-3"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <n v="2.238216455835339E-3"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <n v="2.2022494684432493E-3"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <n v="2.1590737788357438E-3"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <n v="2.1091379798093054E-3"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <n v="2.0529531625733109E-3"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <n v="1.9910842182057744E-3"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <n v="1.9241404020853515E-3"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <n v="1.8527653812025605E-3"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <n v="1.7776269908116016E-3"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <n v="1.699406926854436E-3"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <n v="1.6187905941814056E-3"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <n v="1.5364573182353135E-3"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <n v="1.453071110179239E-3"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <n v="1.3692721532149199E-3"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <n v="1.2856691519654102E-3"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <n v="1.2028326582742953E-3"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <n v="1.1212894566373795E-3"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <n v="1.0415180617651878E-3"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <n v="9.6394535047018663E-4"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <n v="8.8894432110096376E-4"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <n v="8.1683294692098973E-4"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <n v="7.4787406583721344E-4"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <n v="6.8227622826238057E-4"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <n v="6.2019540802741495E-4"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <n v="5.6173746837051759E-4"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <n v="5.0696126618724195E-4"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <n v="4.5588227285575813E-4"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <n v="4.0847658884953452E-4"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <n v="3.6468523170150847E-4"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <n v="3.2441858228702799E-4"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <n v="2.8756088238042948E-4"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <n v="2.5397468650419243E-4"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <n v="2.2350518270464932E-4"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <n v="1.9598430953238633E-4"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <n v="1.7123460967963778E-4"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <n v="1.4907277397068492E-4"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <n v="1.2931284230539511E-4"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFA80FDB-DD1A-4933-B2A3-AAA1BFD245FE}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="E35:G48" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" dataField="1" compact="0" numFmtId="1" outline="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Data" fld="0" subtotal="count" baseField="0" baseItem="7"/>
+    <dataField name="Sum of Normal Distribution Points" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3032DB15-BE05-42D5-8081-7D8185449FCB}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="E23:F31" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="1">
@@ -18189,7 +18798,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4675E91F-86B4-4D32-8C9C-E8EE145C100E}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="N6:O14" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="1">
@@ -18251,8 +18860,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8DE27A3-796C-4FB8-B020-86F71C31FED4}" name="PivotTable4" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8DE27A3-796C-4FB8-B020-86F71C31FED4}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="E11:G24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" compact="0" numFmtId="1" outline="0" showAll="0">
@@ -19630,30 +20239,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE55A3FA-5D17-4AAC-B781-BD77F8A491A2}">
-  <dimension ref="A1:T1009"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -19661,52 +20268,52 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3200</v>
       </c>
       <c r="B2" s="6">
-        <f>_xlfn.RANK.EQ(A2,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
+        <f t="shared" ref="B2:B33" si="0">_xlfn.RANK.EQ(A2,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2 + 10</f>
         <v>3210</v>
       </c>
       <c r="B3" s="6">
-        <f>_xlfn.RANK.EQ(A3,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3 + 10</f>
         <v>3220</v>
       </c>
       <c r="B4" s="6">
-        <f>_xlfn.RANK.EQ(A4,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" ref="A5:A61" si="0">A4 + 10</f>
+        <f t="shared" ref="A5:A61" si="1">A4 + 10</f>
         <v>3230</v>
       </c>
       <c r="B5" s="6">
-        <f>_xlfn.RANK.EQ(A5,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
+        <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
+        <f t="shared" si="1"/>
+        <v>3240</v>
+      </c>
+      <c r="B6" s="6">
         <f t="shared" si="0"/>
-        <v>3240</v>
-      </c>
-      <c r="B6" s="6">
-        <f>_xlfn.RANK.EQ(A6,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="N6">
@@ -19714,23 +20321,23 @@
         <v>10.390861369491946</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
+        <f t="shared" si="1"/>
+        <v>3250</v>
+      </c>
+      <c r="B7" s="6">
         <f t="shared" si="0"/>
-        <v>3250</v>
-      </c>
-      <c r="B7" s="6">
-        <f>_xlfn.RANK.EQ(A7,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
+        <f t="shared" si="1"/>
+        <v>3260</v>
+      </c>
+      <c r="B8" s="6">
         <f t="shared" si="0"/>
-        <v>3260</v>
-      </c>
-      <c r="B8" s="6">
-        <f>_xlfn.RANK.EQ(A8,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>0.11666666666666667</v>
       </c>
       <c r="H8" t="s">
@@ -19741,13 +20348,13 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>A8 + 10</f>
         <v>3270</v>
       </c>
       <c r="B9" s="6">
-        <f>_xlfn.RANK.EQ(A9,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
+        <f t="shared" si="0"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="H9" t="s">
@@ -19763,20 +20370,14 @@
       <c r="O9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="S9" t="s">
-        <v>49</v>
-      </c>
-      <c r="T9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
+        <f t="shared" si="1"/>
+        <v>3280</v>
+      </c>
+      <c r="B10" s="6">
         <f t="shared" si="0"/>
-        <v>3280</v>
-      </c>
-      <c r="B10" s="6">
-        <f>_xlfn.RANK.EQ(A10,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>0.15</v>
       </c>
       <c r="H10" t="s">
@@ -19795,20 +20396,14 @@
         <f xml:space="preserve"> _xlfn.NORM.DIST(N10,$I$14,$I$16,FALSE)</f>
         <v>2.5590843267046971E-5</v>
       </c>
-      <c r="S10" s="8">
-        <v>3358.6727911616617</v>
-      </c>
-      <c r="T10">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
+        <f t="shared" si="1"/>
+        <v>3290</v>
+      </c>
+      <c r="B11" s="6">
         <f t="shared" si="0"/>
-        <v>3290</v>
-      </c>
-      <c r="B11" s="6">
-        <f>_xlfn.RANK.EQ(A11,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="H11" t="s">
@@ -19824,24 +20419,17 @@
         <v>2985.8477928948951</v>
       </c>
       <c r="O11">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N11,$I$14,$I$16,FALSE)</f>
+        <f t="shared" ref="O10:O41" si="2" xml:space="preserve"> _xlfn.NORM.DIST(N11,$I$14,$I$16,FALSE)</f>
         <v>3.0582703456296895E-5</v>
       </c>
-      <c r="S11" s="8">
-        <v>3586.0756510165811</v>
-      </c>
-      <c r="T11">
-        <f>T10+100</f>
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>A11 + 10</f>
         <v>3300</v>
       </c>
       <c r="B12" s="6">
-        <f>_xlfn.RANK.EQ(A12,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
+        <f t="shared" si="0"/>
         <v>0.18333333333333332</v>
       </c>
       <c r="H12" t="s">
@@ -19857,24 +20445,17 @@
         <v>2996.2386542643872</v>
       </c>
       <c r="O12">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N12,$I$14,$I$16,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>3.6416960088310806E-5</v>
       </c>
-      <c r="S12" s="8">
-        <v>3484.2025498866133</v>
-      </c>
-      <c r="T12">
-        <f>T11+100</f>
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>A12 + 10</f>
         <v>3310</v>
       </c>
       <c r="B13" s="6">
-        <f>_xlfn.RANK.EQ(A13,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="H13" t="s">
@@ -19890,24 +20471,17 @@
         <v>3006.6295156338792</v>
       </c>
       <c r="O13">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N13,$I$14,$I$16,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>4.320838625227376E-5</v>
       </c>
-      <c r="S13" s="8">
-        <v>3633.8154144933651</v>
-      </c>
-      <c r="T13">
-        <f>T12+100</f>
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
+        <f t="shared" si="1"/>
+        <v>3320</v>
+      </c>
+      <c r="B14" s="6">
         <f t="shared" si="0"/>
-        <v>3320</v>
-      </c>
-      <c r="B14" s="6">
-        <f>_xlfn.RANK.EQ(A14,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>0.21666666666666667</v>
       </c>
       <c r="H14" t="s">
@@ -19919,28 +20493,21 @@
       </c>
       <c r="K14" s="8"/>
       <c r="N14" s="8">
-        <f t="shared" ref="N14:N75" si="1" xml:space="preserve"> N13 + $N$6</f>
+        <f t="shared" ref="N14:N75" si="3" xml:space="preserve"> N13 + $N$6</f>
         <v>3017.0203770033713</v>
       </c>
       <c r="O14">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N14,$I$14,$I$16,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>5.1082123514096381E-5</v>
       </c>
-      <c r="S14" s="8">
-        <v>3477.2630195239981</v>
-      </c>
-      <c r="T14">
-        <f>T13+100</f>
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
+        <f t="shared" si="1"/>
+        <v>3330</v>
+      </c>
+      <c r="B15" s="6">
         <f t="shared" si="0"/>
-        <v>3330</v>
-      </c>
-      <c r="B15" s="6">
-        <f>_xlfn.RANK.EQ(A15,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>0.23333333333333334</v>
       </c>
       <c r="H15" t="s">
@@ -19952,28 +20519,21 @@
       </c>
       <c r="K15" s="8"/>
       <c r="N15" s="8">
+        <f t="shared" si="3"/>
+        <v>3027.4112383728634</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>6.0173653235442668E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
         <f t="shared" si="1"/>
-        <v>3027.4112383728634</v>
-      </c>
-      <c r="O15">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N15,$I$14,$I$16,FALSE)</f>
-        <v>6.0173653235442668E-5</v>
-      </c>
-      <c r="S15" s="8">
-        <v>3514.8424458403679</v>
-      </c>
-      <c r="T15">
-        <f>T14+100</f>
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16">
+        <v>3340</v>
+      </c>
+      <c r="B16" s="6">
         <f t="shared" si="0"/>
-        <v>3340</v>
-      </c>
-      <c r="B16" s="6">
-        <f>_xlfn.RANK.EQ(A16,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>0.25</v>
       </c>
       <c r="H16" t="s">
@@ -19985,239 +20545,195 @@
       </c>
       <c r="K16" s="8"/>
       <c r="N16" s="8">
+        <f t="shared" si="3"/>
+        <v>3037.8020997423555</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>7.0628560518710252E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
         <f t="shared" si="1"/>
-        <v>3037.8020997423555</v>
-      </c>
-      <c r="O16">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N16,$I$14,$I$16,FALSE)</f>
-        <v>7.0628560518710252E-5</v>
-      </c>
-      <c r="S16" s="8">
-        <v>3584.9215236586315</v>
-      </c>
-      <c r="T16">
-        <f>T15+100</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17">
+        <v>3350</v>
+      </c>
+      <c r="B17" s="6">
         <f t="shared" si="0"/>
-        <v>3350</v>
-      </c>
-      <c r="B17" s="6">
-        <f>_xlfn.RANK.EQ(A17,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="K17" s="8"/>
       <c r="N17" s="8">
+        <f t="shared" si="3"/>
+        <v>3048.1929611118476</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>8.2602058590544301E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
         <f t="shared" si="1"/>
-        <v>3048.1929611118476</v>
-      </c>
-      <c r="O17">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N17,$I$14,$I$16,FALSE)</f>
-        <v>8.2602058590544301E-5</v>
-      </c>
-      <c r="S17" s="8">
-        <v>3444.6251562504767</v>
-      </c>
-      <c r="T17">
-        <f>T16+100</f>
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18">
+        <v>3360</v>
+      </c>
+      <c r="B18" s="6">
         <f t="shared" si="0"/>
-        <v>3360</v>
-      </c>
-      <c r="B18" s="6">
-        <f>_xlfn.RANK.EQ(A18,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>0.28333333333333333</v>
       </c>
       <c r="K18" s="8"/>
       <c r="N18" s="8">
+        <f t="shared" si="3"/>
+        <v>3058.5838224813397</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>9.6258242187653042E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
         <f t="shared" si="1"/>
-        <v>3058.5838224813397</v>
-      </c>
-      <c r="O18">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N18,$I$14,$I$16,FALSE)</f>
-        <v>9.6258242187653042E-5</v>
-      </c>
-      <c r="S18" s="8">
-        <v>3376.5609776784186</v>
-      </c>
-      <c r="T18">
-        <f>T17+100</f>
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19">
+        <v>3370</v>
+      </c>
+      <c r="B19" s="6">
         <f t="shared" si="0"/>
-        <v>3370</v>
-      </c>
-      <c r="B19" s="6">
-        <f>_xlfn.RANK.EQ(A19,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>0.3</v>
       </c>
       <c r="K19" s="8"/>
       <c r="N19" s="8">
+        <f t="shared" si="3"/>
+        <v>3068.9746838508318</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>1.1176904037177302E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
         <f t="shared" si="1"/>
-        <v>3068.9746838508318</v>
-      </c>
-      <c r="O19">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N19,$I$14,$I$16,FALSE)</f>
-        <v>1.1176904037177302E-4</v>
-      </c>
-      <c r="S19" s="8">
-        <v>3411.68468401258</v>
-      </c>
-      <c r="T19">
-        <f>T18+100</f>
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20">
+        <v>3380</v>
+      </c>
+      <c r="B20" s="6">
         <f t="shared" si="0"/>
-        <v>3380</v>
-      </c>
-      <c r="B20" s="6">
-        <f>_xlfn.RANK.EQ(A20,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>0.31666666666666665</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>48</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K20" s="8"/>
       <c r="N20" s="8">
+        <f t="shared" si="3"/>
+        <v>3079.3655452203238</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>1.2931284230542116E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
         <f t="shared" si="1"/>
-        <v>3079.3655452203238</v>
-      </c>
-      <c r="O20">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N20,$I$14,$I$16,FALSE)</f>
-        <v>1.2931284230542116E-4</v>
-      </c>
-      <c r="S20" s="8">
-        <v>3443.3798721257699</v>
-      </c>
-      <c r="T20">
-        <f>T19+100</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21">
+        <v>3390</v>
+      </c>
+      <c r="B21" s="6">
         <f t="shared" si="0"/>
-        <v>3390</v>
-      </c>
-      <c r="B21" s="6">
-        <f>_xlfn.RANK.EQ(A21,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21" s="12">
-        <v>0</v>
-      </c>
-      <c r="J21" s="16">
-        <v>1</v>
+      <c r="H21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="2">
+        <v>10</v>
+      </c>
+      <c r="J21" s="2">
+        <v>6.0831257148214813E-4</v>
       </c>
       <c r="K21" s="8"/>
       <c r="N21" s="8">
+        <f t="shared" si="3"/>
+        <v>3089.7564065898159</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>1.4907277397071422E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
         <f t="shared" si="1"/>
-        <v>3089.7564065898159</v>
-      </c>
-      <c r="O21">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N21,$I$14,$I$16,FALSE)</f>
-        <v>1.4907277397071422E-4</v>
-      </c>
-      <c r="S21" s="8">
-        <v>3332.218428046981</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22">
+        <v>3400</v>
+      </c>
+      <c r="B22" s="6">
         <f t="shared" si="0"/>
-        <v>3400</v>
-      </c>
-      <c r="B22" s="6">
-        <f>_xlfn.RANK.EQ(A22,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>0.35</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="12">
-        <v>0</v>
-      </c>
-      <c r="J22" s="16">
+      <c r="E22" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="2">
         <v>10</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2.5082256899158829E-3</v>
       </c>
       <c r="K22" s="8"/>
       <c r="N22" s="8">
+        <f t="shared" si="3"/>
+        <v>3100.147267959308</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="2"/>
+        <v>1.7123460967967072E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
         <f t="shared" si="1"/>
-        <v>3100.147267959308</v>
-      </c>
-      <c r="O22">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N22,$I$14,$I$16,FALSE)</f>
-        <v>1.7123460967967072E-4</v>
-      </c>
-      <c r="S22" s="8">
-        <v>3707.6736589161737</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23">
+        <v>3410</v>
+      </c>
+      <c r="B23" s="6">
         <f t="shared" si="0"/>
-        <v>3410</v>
-      </c>
-      <c r="B23" s="6">
-        <f>_xlfn.RANK.EQ(A23,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>0.36666666666666664</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="13">
-        <v>10</v>
-      </c>
-      <c r="J23" s="16">
-        <v>24</v>
+      <c r="H23" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="2">
+        <v>9</v>
+      </c>
+      <c r="J23" s="2">
+        <v>6.2446493280334664E-3</v>
       </c>
       <c r="N23" s="8">
+        <f t="shared" si="3"/>
+        <v>3110.5381293288001</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>1.959843095324229E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
         <f t="shared" si="1"/>
-        <v>3110.5381293288001</v>
-      </c>
-      <c r="O23">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N23,$I$14,$I$16,FALSE)</f>
-        <v>1.959843095324229E-4</v>
-      </c>
-      <c r="S23" s="8">
-        <v>3619.3504303602094</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24">
+        <v>3420</v>
+      </c>
+      <c r="B24" s="6">
         <f t="shared" si="0"/>
-        <v>3420</v>
-      </c>
-      <c r="B24" s="6">
-        <f>_xlfn.RANK.EQ(A24,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>0.38333333333333336</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -20226,34 +20742,31 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="13">
+      <c r="H24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="2">
         <v>10</v>
       </c>
-      <c r="J24" s="16">
-        <v>92</v>
+      <c r="J24" s="2">
+        <v>1.4105934422120329E-2</v>
       </c>
       <c r="N24" s="8">
+        <f t="shared" si="3"/>
+        <v>3120.9289906982922</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>2.2350518270468982E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
         <f t="shared" si="1"/>
-        <v>3120.9289906982922</v>
-      </c>
-      <c r="O24">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N24,$I$14,$I$16,FALSE)</f>
-        <v>2.2350518270468982E-4</v>
-      </c>
-      <c r="S24" s="8">
-        <v>3586.9439044537285</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25">
+        <v>3430</v>
+      </c>
+      <c r="B25" s="6">
         <f t="shared" si="0"/>
-        <v>3430</v>
-      </c>
-      <c r="B25" s="6">
-        <f>_xlfn.RANK.EQ(A25,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>0.4</v>
       </c>
       <c r="E25" t="s">
@@ -20262,34 +20775,31 @@
       <c r="F25" s="2">
         <v>10</v>
       </c>
-      <c r="H25" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="13">
+      <c r="H25" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="2">
         <v>10</v>
       </c>
-      <c r="J25" s="16">
-        <v>172</v>
+      <c r="J25" s="2">
+        <v>2.1083305090510214E-2</v>
       </c>
       <c r="N25" s="8">
+        <f t="shared" si="3"/>
+        <v>3131.3198520677843</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="2"/>
+        <v>2.5397468650423737E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
         <f t="shared" si="1"/>
-        <v>3131.3198520677843</v>
-      </c>
-      <c r="O25">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N25,$I$14,$I$16,FALSE)</f>
-        <v>2.5397468650423737E-4</v>
-      </c>
-      <c r="S25" s="8">
-        <v>3656.8361404325697</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26">
+        <v>3440</v>
+      </c>
+      <c r="B26" s="6">
         <f t="shared" si="0"/>
-        <v>3440</v>
-      </c>
-      <c r="B26" s="6">
-        <f>_xlfn.RANK.EQ(A26,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>0.41666666666666669</v>
       </c>
       <c r="E26" t="s">
@@ -20298,34 +20808,31 @@
       <c r="F26" s="2">
         <v>10</v>
       </c>
-      <c r="H26" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="13">
-        <v>10</v>
-      </c>
-      <c r="J26" s="16">
-        <v>227</v>
+      <c r="H26" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="2">
+        <v>9</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2.0164919269584705E-2</v>
       </c>
       <c r="N26" s="8">
+        <f t="shared" si="3"/>
+        <v>3141.7107134372764</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="2"/>
+        <v>2.8756088238047865E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
         <f t="shared" si="1"/>
-        <v>3141.7107134372764</v>
-      </c>
-      <c r="O26">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N26,$I$14,$I$16,FALSE)</f>
-        <v>2.8756088238047865E-4</v>
-      </c>
-      <c r="S26" s="8">
-        <v>3402.5522722932874</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27">
+        <v>3450</v>
+      </c>
+      <c r="B27" s="6">
         <f t="shared" si="0"/>
-        <v>3450</v>
-      </c>
-      <c r="B27" s="6">
-        <f>_xlfn.RANK.EQ(A27,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>0.43333333333333335</v>
       </c>
       <c r="E27" t="s">
@@ -20334,34 +20841,31 @@
       <c r="F27" s="2">
         <v>10</v>
       </c>
-      <c r="H27" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I27" s="13">
+      <c r="H27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="2">
         <v>10</v>
       </c>
-      <c r="J27" s="16">
-        <v>205</v>
+      <c r="J27" s="2">
+        <v>1.7275568257543915E-2</v>
       </c>
       <c r="N27" s="8">
+        <f t="shared" si="3"/>
+        <v>3152.1015748067684</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="2"/>
+        <v>3.2441858228708198E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
         <f t="shared" si="1"/>
-        <v>3152.1015748067684</v>
-      </c>
-      <c r="O27">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N27,$I$14,$I$16,FALSE)</f>
-        <v>3.2441858228708198E-4</v>
-      </c>
-      <c r="S27" s="8">
-        <v>3711.469954330023</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28">
+        <v>3460</v>
+      </c>
+      <c r="B28" s="6">
         <f t="shared" si="0"/>
-        <v>3460</v>
-      </c>
-      <c r="B28" s="6">
-        <f>_xlfn.RANK.EQ(A28,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>0.45</v>
       </c>
       <c r="E28" t="s">
@@ -20370,34 +20874,31 @@
       <c r="F28" s="2">
         <v>10</v>
       </c>
-      <c r="H28" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" s="13">
-        <v>10</v>
-      </c>
-      <c r="J28" s="16">
-        <v>145</v>
+      <c r="H28" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="2">
+        <v>9</v>
+      </c>
+      <c r="J28" s="2">
+        <v>8.7511822412340064E-3</v>
       </c>
       <c r="N28" s="8">
+        <f t="shared" si="3"/>
+        <v>3162.4924361762605</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="2"/>
+        <v>3.6468523170156739E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
         <f t="shared" si="1"/>
-        <v>3162.4924361762605</v>
-      </c>
-      <c r="O28">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N28,$I$14,$I$16,FALSE)</f>
-        <v>3.6468523170156739E-4</v>
-      </c>
-      <c r="S28" s="8">
-        <v>3808.2304012069653</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29">
+        <v>3470</v>
+      </c>
+      <c r="B29" s="6">
         <f t="shared" si="0"/>
-        <v>3470</v>
-      </c>
-      <c r="B29" s="6">
-        <f>_xlfn.RANK.EQ(A29,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>0.46666666666666667</v>
       </c>
       <c r="E29" t="s">
@@ -20406,34 +20907,31 @@
       <c r="F29" s="2">
         <v>10</v>
       </c>
-      <c r="H29" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I29" s="13">
-        <v>0</v>
-      </c>
-      <c r="J29" s="16">
-        <v>76</v>
+      <c r="H29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="2">
+        <v>10</v>
+      </c>
+      <c r="J29" s="2">
+        <v>4.007397569868276E-3</v>
       </c>
       <c r="N29" s="8">
+        <f t="shared" si="3"/>
+        <v>3172.8832975457526</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="2"/>
+        <v>4.0847658884959838E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
         <f t="shared" si="1"/>
-        <v>3172.8832975457526</v>
-      </c>
-      <c r="O29">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N29,$I$14,$I$16,FALSE)</f>
-        <v>4.0847658884959838E-4</v>
-      </c>
-      <c r="S29" s="8">
-        <v>3794.9660087880329</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30">
+        <v>3480</v>
+      </c>
+      <c r="B30" s="6">
         <f t="shared" si="0"/>
-        <v>3480</v>
-      </c>
-      <c r="B30" s="6">
-        <f>_xlfn.RANK.EQ(A30,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>0.48333333333333334</v>
       </c>
       <c r="E30" t="s">
@@ -20442,34 +20940,31 @@
       <c r="F30" s="2">
         <v>10</v>
       </c>
-      <c r="H30" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I30" s="13">
-        <v>0</v>
-      </c>
-      <c r="J30" s="16">
-        <v>33</v>
+      <c r="H30" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="2">
+        <v>3</v>
+      </c>
+      <c r="J30" s="2">
+        <v>5.1629169318270903E-4</v>
       </c>
       <c r="N30" s="8">
+        <f t="shared" si="3"/>
+        <v>3183.2741589152447</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="2"/>
+        <v>4.5588227285582697E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
         <f t="shared" si="1"/>
-        <v>3183.2741589152447</v>
-      </c>
-      <c r="O30">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N30,$I$14,$I$16,FALSE)</f>
-        <v>4.5588227285582697E-4</v>
-      </c>
-      <c r="S30" s="8">
-        <v>3486.2328059963329</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31">
+        <v>3490</v>
+      </c>
+      <c r="B31" s="6">
         <f t="shared" si="0"/>
-        <v>3490</v>
-      </c>
-      <c r="B31" s="6">
-        <f>_xlfn.RANK.EQ(A31,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>0.5</v>
       </c>
       <c r="E31" t="s">
@@ -20478,5827 +20973,1077 @@
       <c r="F31" s="2">
         <v>60</v>
       </c>
-      <c r="H31" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I31" s="13">
-        <v>0</v>
-      </c>
-      <c r="J31" s="16">
-        <v>12</v>
+      <c r="H31" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1.29312842305395E-4</v>
       </c>
       <c r="N31" s="8">
+        <f t="shared" si="3"/>
+        <v>3193.6650202847368</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="2"/>
+        <v>5.0696126618731633E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32">
         <f t="shared" si="1"/>
-        <v>3193.6650202847368</v>
-      </c>
-      <c r="O31">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N31,$I$14,$I$16,FALSE)</f>
-        <v>5.0696126618731633E-4</v>
-      </c>
-      <c r="S31" s="8">
-        <v>3520.4679799581936</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32">
+        <v>3500</v>
+      </c>
+      <c r="B32" s="6">
         <f t="shared" si="0"/>
-        <v>3500</v>
-      </c>
-      <c r="B32" s="6">
-        <f>_xlfn.RANK.EQ(A32,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>0.51666666666666672</v>
       </c>
-      <c r="E32" s="14"/>
+      <c r="E32" s="12"/>
       <c r="N32" s="8">
+        <f t="shared" si="3"/>
+        <v>3204.0558816542289</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="2"/>
+        <v>5.6173746837059673E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33">
         <f t="shared" si="1"/>
-        <v>3204.0558816542289</v>
-      </c>
-      <c r="O32">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N32,$I$14,$I$16,FALSE)</f>
-        <v>5.6173746837059673E-4</v>
-      </c>
-      <c r="S32" s="8">
-        <v>3470.4823736338949</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33">
+        <v>3510</v>
+      </c>
+      <c r="B33" s="6">
         <f t="shared" si="0"/>
-        <v>3510</v>
-      </c>
-      <c r="B33" s="6">
-        <f>_xlfn.RANK.EQ(A33,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>0.53333333333333333</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="N33" s="8">
+        <f t="shared" si="3"/>
+        <v>3214.446743023721</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>6.2019540802749963E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34">
         <f t="shared" si="1"/>
-        <v>3214.446743023721</v>
-      </c>
-      <c r="O33">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N33,$I$14,$I$16,FALSE)</f>
-        <v>6.2019540802749963E-4</v>
-      </c>
-      <c r="S33" s="8">
-        <v>3624.971042406396</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="0"/>
         <v>3520</v>
       </c>
       <c r="B34" s="6">
-        <f>_xlfn.RANK.EQ(A34,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
+        <f t="shared" ref="B34:B61" si="4">_xlfn.RANK.EQ(A34,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="3"/>
       <c r="N34" s="8">
+        <f t="shared" si="3"/>
+        <v>3224.837604393213</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="2"/>
+        <v>6.8227622826247001E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35">
         <f t="shared" si="1"/>
-        <v>3224.837604393213</v>
-      </c>
-      <c r="O34">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N34,$I$14,$I$16,FALSE)</f>
-        <v>6.8227622826247001E-4</v>
-      </c>
-      <c r="S34" s="8">
-        <v>3394.130213952958</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="0"/>
         <v>3530</v>
       </c>
       <c r="B35" s="6">
-        <f>_xlfn.RANK.EQ(A35,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
+        <f t="shared" si="4"/>
         <v>0.56666666666666665</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="N35" s="8">
+        <f t="shared" si="3"/>
+        <v>3235.2284657627051</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="2"/>
+        <v>7.4787406583730787E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36">
         <f t="shared" si="1"/>
-        <v>3235.2284657627051</v>
-      </c>
-      <c r="O35">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N35,$I$14,$I$16,FALSE)</f>
-        <v>7.4787406583730787E-4</v>
-      </c>
-      <c r="S35" s="8">
-        <v>3457.4613284368024</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="0"/>
         <v>3540</v>
       </c>
       <c r="B36" s="6">
-        <f>_xlfn.RANK.EQ(A36,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
+        <f t="shared" si="4"/>
         <v>0.58333333333333337</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="3"/>
+      <c r="E36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" t="s">
+        <v>69</v>
+      </c>
       <c r="N36" s="8">
+        <f t="shared" si="3"/>
+        <v>3245.6193271321972</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>8.168329469210885E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37">
         <f t="shared" si="1"/>
-        <v>3245.6193271321972</v>
-      </c>
-      <c r="O36">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N36,$I$14,$I$16,FALSE)</f>
-        <v>8.168329469210885E-4</v>
-      </c>
-      <c r="S36" s="8">
-        <v>3294.8843177811068</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="0"/>
         <v>3550</v>
       </c>
       <c r="B37" s="6">
-        <f>_xlfn.RANK.EQ(A37,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="3"/>
+      <c r="E37" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="2">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2">
+        <v>6.0831257148214813E-4</v>
+      </c>
       <c r="N37" s="8">
+        <f t="shared" si="3"/>
+        <v>3256.0101885016893</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="2"/>
+        <v>8.8894432110106665E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38">
         <f t="shared" si="1"/>
-        <v>3256.0101885016893</v>
-      </c>
-      <c r="O37">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N37,$I$14,$I$16,FALSE)</f>
-        <v>8.8894432110106665E-4</v>
-      </c>
-      <c r="S37" s="8">
-        <v>3760.8052565493563</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="0"/>
         <v>3560</v>
       </c>
       <c r="B38" s="6">
-        <f>_xlfn.RANK.EQ(A38,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
+        <f t="shared" si="4"/>
         <v>0.6166666666666667</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="3"/>
+      <c r="E38" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="2">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2">
+        <v>2.5082256899158829E-3</v>
+      </c>
       <c r="N38" s="8">
+        <f t="shared" si="3"/>
+        <v>3266.4010498711814</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="2"/>
+        <v>9.6394535047029375E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39">
         <f t="shared" si="1"/>
-        <v>3266.4010498711814</v>
-      </c>
-      <c r="O38">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N38,$I$14,$I$16,FALSE)</f>
-        <v>9.6394535047029375E-4</v>
-      </c>
-      <c r="S38" s="8">
-        <v>3419.5724022557624</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f t="shared" si="0"/>
         <v>3570</v>
       </c>
       <c r="B39" s="6">
-        <f>_xlfn.RANK.EQ(A39,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
+        <f t="shared" si="4"/>
         <v>0.6333333333333333</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="3"/>
+      <c r="E39" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="2">
+        <v>9</v>
+      </c>
+      <c r="G39" s="2">
+        <v>6.2446493280334664E-3</v>
+      </c>
       <c r="N39" s="8">
+        <f t="shared" si="3"/>
+        <v>3276.7919112406735</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="2"/>
+        <v>1.0415180617652979E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40">
         <f t="shared" si="1"/>
-        <v>3276.7919112406735</v>
-      </c>
-      <c r="O39">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N39,$I$14,$I$16,FALSE)</f>
-        <v>1.0415180617652979E-3</v>
-      </c>
-      <c r="S39" s="8">
-        <v>3318.5197120266093</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f t="shared" si="0"/>
         <v>3580</v>
       </c>
       <c r="B40" s="6">
-        <f>_xlfn.RANK.EQ(A40,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
+        <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="3"/>
+      <c r="E40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="2">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1.4105934422120329E-2</v>
+      </c>
       <c r="N40" s="8">
+        <f t="shared" si="3"/>
+        <v>3287.1827726101656</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="2"/>
+        <v>1.1212894566374929E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41">
         <f t="shared" si="1"/>
-        <v>3287.1827726101656</v>
-      </c>
-      <c r="O40">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N40,$I$14,$I$16,FALSE)</f>
-        <v>1.1212894566374929E-3</v>
-      </c>
-      <c r="S40" s="8">
-        <v>3559.5015831196361</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f t="shared" si="0"/>
         <v>3590</v>
       </c>
       <c r="B41" s="6">
-        <f>_xlfn.RANK.EQ(A41,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="3"/>
+      <c r="E41" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="2">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2">
+        <v>2.1083305090510214E-2</v>
+      </c>
       <c r="N41" s="8">
+        <f t="shared" si="3"/>
+        <v>3297.5736339796576</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="2"/>
+        <v>1.2028326582744107E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42">
         <f t="shared" si="1"/>
-        <v>3297.5736339796576</v>
-      </c>
-      <c r="O41">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N41,$I$14,$I$16,FALSE)</f>
-        <v>1.2028326582744107E-3</v>
-      </c>
-      <c r="S41" s="8">
-        <v>3698.1421656283783</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f t="shared" si="0"/>
         <v>3600</v>
       </c>
       <c r="B42" s="6">
-        <f>_xlfn.RANK.EQ(A42,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
+        <f t="shared" si="4"/>
         <v>0.68333333333333335</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="3"/>
+      <c r="E42" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="2">
+        <v>9</v>
+      </c>
+      <c r="G42" s="2">
+        <v>2.0164919269584705E-2</v>
+      </c>
       <c r="N42" s="8">
+        <f t="shared" si="3"/>
+        <v>3307.9644953491497</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ref="O42:O73" si="5" xml:space="preserve"> _xlfn.NORM.DIST(N42,$I$14,$I$16,FALSE)</f>
+        <v>1.2856691519655271E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43">
         <f t="shared" si="1"/>
-        <v>3307.9644953491497</v>
-      </c>
-      <c r="O42">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N42,$I$14,$I$16,FALSE)</f>
-        <v>1.2856691519655271E-3</v>
-      </c>
-      <c r="S42" s="8">
-        <v>3642.4467593197915</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f t="shared" si="0"/>
         <v>3610</v>
       </c>
       <c r="B43" s="6">
-        <f>_xlfn.RANK.EQ(A43,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="3"/>
+      <c r="E43" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="2">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1.7275568257543915E-2</v>
+      </c>
       <c r="N43" s="8">
+        <f t="shared" si="3"/>
+        <v>3318.3553567186418</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="5"/>
+        <v>1.3692721532150372E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44">
         <f t="shared" si="1"/>
-        <v>3318.3553567186418</v>
-      </c>
-      <c r="O43">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N43,$I$14,$I$16,FALSE)</f>
-        <v>1.3692721532150372E-3</v>
-      </c>
-      <c r="S43" s="8">
-        <v>3453.7906442911844</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f t="shared" si="0"/>
         <v>3620</v>
       </c>
       <c r="B44" s="6">
-        <f>_xlfn.RANK.EQ(A44,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
+        <f t="shared" si="4"/>
         <v>0.71666666666666667</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="3"/>
+      <c r="E44" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F44" s="2">
+        <v>9</v>
+      </c>
+      <c r="G44" s="2">
+        <v>8.7511822412340064E-3</v>
+      </c>
       <c r="N44" s="8">
+        <f t="shared" si="3"/>
+        <v>3328.7462180881339</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="5"/>
+        <v>1.4530711101793565E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45">
         <f t="shared" si="1"/>
-        <v>3328.7462180881339</v>
-      </c>
-      <c r="O44">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N44,$I$14,$I$16,FALSE)</f>
-        <v>1.4530711101793565E-3</v>
-      </c>
-      <c r="S44" s="8">
-        <v>3363.6200638076116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <f t="shared" si="0"/>
         <v>3630</v>
       </c>
       <c r="B45" s="6">
-        <f>_xlfn.RANK.EQ(A45,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
+        <f t="shared" si="4"/>
         <v>0.73333333333333328</v>
       </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="E45" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="2">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2">
+        <v>4.007397569868276E-3</v>
+      </c>
       <c r="N45" s="8">
+        <f t="shared" si="3"/>
+        <v>3339.137079457626</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="5"/>
+        <v>1.5364573182354295E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46">
         <f t="shared" si="1"/>
-        <v>3339.137079457626</v>
-      </c>
-      <c r="O45">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N45,$I$14,$I$16,FALSE)</f>
-        <v>1.5364573182354295E-3</v>
-      </c>
-      <c r="S45" s="8">
-        <v>3315.1234825955908</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <f t="shared" si="0"/>
         <v>3640</v>
       </c>
       <c r="B46" s="6">
-        <f>_xlfn.RANK.EQ(A46,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
+      <c r="E46" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="2">
+        <v>3</v>
+      </c>
+      <c r="G46" s="2">
+        <v>5.1629169318270903E-4</v>
+      </c>
       <c r="N46" s="8">
+        <f t="shared" si="3"/>
+        <v>3349.5279408271181</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="5"/>
+        <v>1.6187905941815199E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47">
         <f t="shared" si="1"/>
-        <v>3349.5279408271181</v>
-      </c>
-      <c r="O46">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N46,$I$14,$I$16,FALSE)</f>
-        <v>1.6187905941815199E-3</v>
-      </c>
-      <c r="S46" s="8">
-        <v>3771.026627398096</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f t="shared" si="0"/>
         <v>3650</v>
       </c>
       <c r="B47" s="6">
-        <f>_xlfn.RANK.EQ(A47,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
+        <f t="shared" si="4"/>
         <v>0.76666666666666672</v>
       </c>
-      <c r="E47" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>48</v>
+      <c r="E47" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1.2931284230539511E-4</v>
       </c>
       <c r="N47" s="8">
+        <f t="shared" si="3"/>
+        <v>3359.9188021966102</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="5"/>
+        <v>1.6994069268545474E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48">
         <f t="shared" si="1"/>
-        <v>3359.9188021966102</v>
-      </c>
-      <c r="O47">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N47,$I$14,$I$16,FALSE)</f>
-        <v>1.6994069268545474E-3</v>
-      </c>
-      <c r="S47" s="8">
-        <v>3357.7498042878869</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f t="shared" si="0"/>
         <v>3660</v>
       </c>
       <c r="B48" s="6">
-        <f>_xlfn.RANK.EQ(A48,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
+        <f t="shared" si="4"/>
         <v>0.78333333333333333</v>
       </c>
-      <c r="E48" s="9">
-        <v>3000</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="E48" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="2">
+        <v>91</v>
+      </c>
+      <c r="G48" s="2">
+        <v>9.5395098975781051E-2</v>
+      </c>
+      <c r="N48" s="8">
+        <f t="shared" si="3"/>
+        <v>3370.3096635661022</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="5"/>
+        <v>1.7776269908117096E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>3670</v>
+      </c>
+      <c r="B49" s="6">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="N49" s="8">
+        <f t="shared" si="3"/>
+        <v>3380.7005249355943</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="5"/>
+        <v>1.8527653812026633E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>3680</v>
+      </c>
+      <c r="B50" s="6">
+        <f t="shared" si="4"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="N50" s="8">
+        <f t="shared" si="3"/>
+        <v>3391.0913863050864</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="5"/>
+        <v>1.9241404020854487E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>3690</v>
+      </c>
+      <c r="B51" s="6">
+        <f t="shared" si="4"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N51" s="8">
+        <f t="shared" si="3"/>
+        <v>3401.4822476745785</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="5"/>
+        <v>1.9910842182058646E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>3700</v>
+      </c>
+      <c r="B52" s="6">
+        <f t="shared" si="4"/>
+        <v>0.85</v>
+      </c>
+      <c r="N52" s="8">
+        <f t="shared" si="3"/>
+        <v>3411.8731090440706</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="5"/>
+        <v>2.0529531625733933E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>3710</v>
+      </c>
+      <c r="B53" s="6">
+        <f t="shared" si="4"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="N53" s="8">
+        <f t="shared" si="3"/>
+        <v>3422.2639704135627</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="5"/>
+        <v>2.10913797980938E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>3720</v>
+      </c>
+      <c r="B54" s="6">
+        <f t="shared" si="4"/>
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="N54" s="8">
+        <f t="shared" si="3"/>
+        <v>3432.6548317830548</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="5"/>
+        <v>2.1590737788358088E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="1"/>
+        <v>3730</v>
+      </c>
+      <c r="B55" s="6">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="N55" s="8">
+        <f t="shared" si="3"/>
+        <v>3443.0456931525468</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="5"/>
+        <v>2.2022494684433049E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="1"/>
+        <v>3740</v>
+      </c>
+      <c r="B56" s="6">
+        <f t="shared" si="4"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="N56" s="8">
+        <f t="shared" si="3"/>
+        <v>3453.4365545220389</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="5"/>
+        <v>2.2382164558353841E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="1"/>
+        <v>3750</v>
+      </c>
+      <c r="B57" s="6">
+        <f t="shared" si="4"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="N57" s="8">
+        <f t="shared" si="3"/>
+        <v>3463.827415891531</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="5"/>
+        <v>2.2665964013700874E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="1"/>
+        <v>3760</v>
+      </c>
+      <c r="B58" s="6">
+        <f t="shared" si="4"/>
+        <v>0.95</v>
+      </c>
+      <c r="N58" s="8">
+        <f t="shared" si="3"/>
+        <v>3474.2182772610231</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="5"/>
+        <v>2.287087842148879E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="1"/>
+        <v>3770</v>
+      </c>
+      <c r="B59" s="6">
+        <f t="shared" si="4"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="N59" s="8">
+        <f t="shared" si="3"/>
+        <v>3484.6091386305152</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="5"/>
+        <v>2.2994715223406672E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="1"/>
+        <v>3780</v>
+      </c>
+      <c r="B60" s="6">
+        <f t="shared" si="4"/>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="N60" s="8">
+        <f t="shared" si="3"/>
+        <v>3495.0000000000073</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="5"/>
+        <v>2.3036142984608336E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="1"/>
+        <v>3790</v>
+      </c>
+      <c r="B61" s="6">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N48" s="8">
-        <f t="shared" si="1"/>
-        <v>3370.3096635661022</v>
-      </c>
-      <c r="O48">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N48,$I$14,$I$16,FALSE)</f>
-        <v>1.7776269908117096E-3</v>
-      </c>
-      <c r="S48" s="8">
-        <v>3664.199165839018</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>3670</v>
-      </c>
-      <c r="B49" s="6">
-        <f>_xlfn.RANK.EQ(A49,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
-        <v>0.8</v>
-      </c>
-      <c r="E49" s="9">
-        <v>3100</v>
-      </c>
-      <c r="F49" s="3">
-        <v>10</v>
-      </c>
-      <c r="N49" s="8">
-        <f t="shared" si="1"/>
-        <v>3380.7005249355943</v>
-      </c>
-      <c r="O49">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N49,$I$14,$I$16,FALSE)</f>
-        <v>1.8527653812026633E-3</v>
-      </c>
-      <c r="S49" s="8">
-        <v>3989.821768370457</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f t="shared" si="0"/>
-        <v>3680</v>
-      </c>
-      <c r="B50" s="6">
-        <f>_xlfn.RANK.EQ(A50,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
-        <v>0.81666666666666665</v>
-      </c>
-      <c r="E50" s="9">
-        <v>3200</v>
-      </c>
-      <c r="F50" s="3">
-        <v>24</v>
-      </c>
-      <c r="N50" s="8">
-        <f t="shared" si="1"/>
-        <v>3391.0913863050864</v>
-      </c>
-      <c r="O50">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N50,$I$14,$I$16,FALSE)</f>
-        <v>1.9241404020854487E-3</v>
-      </c>
-      <c r="S50" s="8">
-        <v>3838.8945137531846</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <f t="shared" si="0"/>
-        <v>3690</v>
-      </c>
-      <c r="B51" s="6">
-        <f>_xlfn.RANK.EQ(A51,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E51" s="9">
-        <v>3300</v>
-      </c>
-      <c r="F51" s="3">
-        <v>92</v>
-      </c>
-      <c r="N51" s="8">
-        <f t="shared" si="1"/>
-        <v>3401.4822476745785</v>
-      </c>
-      <c r="O51">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N51,$I$14,$I$16,FALSE)</f>
-        <v>1.9910842182058646E-3</v>
-      </c>
-      <c r="S51" s="8">
-        <v>3497.7622666038951</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>3700</v>
-      </c>
-      <c r="B52" s="6">
-        <f>_xlfn.RANK.EQ(A52,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
-        <v>0.85</v>
-      </c>
-      <c r="E52" s="9">
-        <v>3400</v>
-      </c>
-      <c r="F52" s="3">
-        <v>172</v>
-      </c>
-      <c r="N52" s="8">
-        <f t="shared" si="1"/>
-        <v>3411.8731090440706</v>
-      </c>
-      <c r="O52">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N52,$I$14,$I$16,FALSE)</f>
-        <v>2.0529531625733933E-3</v>
-      </c>
-      <c r="S52" s="8">
-        <v>3467.4677031963438</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>3710</v>
-      </c>
-      <c r="B53" s="6">
-        <f>_xlfn.RANK.EQ(A53,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="E53" s="9">
-        <v>3500</v>
-      </c>
-      <c r="F53" s="3">
-        <v>227</v>
-      </c>
-      <c r="N53" s="8">
-        <f t="shared" si="1"/>
-        <v>3422.2639704135627</v>
-      </c>
-      <c r="O53">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N53,$I$14,$I$16,FALSE)</f>
-        <v>2.10913797980938E-3</v>
-      </c>
-      <c r="S53" s="8">
-        <v>3661.9712393322698</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>3720</v>
-      </c>
-      <c r="B54" s="6">
-        <f>_xlfn.RANK.EQ(A54,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
-        <v>0.8833333333333333</v>
-      </c>
-      <c r="E54" s="9">
-        <v>3600</v>
-      </c>
-      <c r="F54" s="3">
-        <v>205</v>
-      </c>
-      <c r="N54" s="8">
-        <f t="shared" si="1"/>
-        <v>3432.6548317830548</v>
-      </c>
-      <c r="O54">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N54,$I$14,$I$16,FALSE)</f>
-        <v>2.1590737788358088E-3</v>
-      </c>
-      <c r="S54" s="8">
-        <v>3424.2647115908039</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>3730</v>
-      </c>
-      <c r="B55" s="6">
-        <f>_xlfn.RANK.EQ(A55,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
-        <v>0.9</v>
-      </c>
-      <c r="E55" s="9">
-        <v>3700</v>
-      </c>
-      <c r="F55" s="3">
-        <v>145</v>
-      </c>
-      <c r="N55" s="8">
-        <f t="shared" si="1"/>
-        <v>3443.0456931525468</v>
-      </c>
-      <c r="O55">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N55,$I$14,$I$16,FALSE)</f>
-        <v>2.2022494684433049E-3</v>
-      </c>
-      <c r="S55" s="8">
-        <v>3475.2908438596205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>3740</v>
-      </c>
-      <c r="B56" s="6">
-        <f>_xlfn.RANK.EQ(A56,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E56" s="9">
-        <v>3800</v>
-      </c>
-      <c r="F56" s="3">
-        <v>76</v>
-      </c>
-      <c r="N56" s="8">
-        <f t="shared" si="1"/>
-        <v>3453.4365545220389</v>
-      </c>
-      <c r="O56">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N56,$I$14,$I$16,FALSE)</f>
-        <v>2.2382164558353841E-3</v>
-      </c>
-      <c r="S56" s="8">
-        <v>3499.5909146592749</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>3750</v>
-      </c>
-      <c r="B57" s="6">
-        <f>_xlfn.RANK.EQ(A57,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="E57" s="9">
-        <v>3900</v>
-      </c>
-      <c r="F57" s="3">
-        <v>33</v>
-      </c>
-      <c r="N57" s="8">
-        <f t="shared" si="1"/>
-        <v>3463.827415891531</v>
-      </c>
-      <c r="O57">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N57,$I$14,$I$16,FALSE)</f>
-        <v>2.2665964013700874E-3</v>
-      </c>
-      <c r="S57" s="8">
-        <v>3590.1015118516807</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>3760</v>
-      </c>
-      <c r="B58" s="6">
-        <f>_xlfn.RANK.EQ(A58,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
-        <v>0.95</v>
-      </c>
-      <c r="E58" s="9">
-        <v>4000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>12</v>
-      </c>
-      <c r="N58" s="8">
-        <f t="shared" si="1"/>
-        <v>3474.2182772610231</v>
-      </c>
-      <c r="O58">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N58,$I$14,$I$16,FALSE)</f>
-        <v>2.287087842148879E-3</v>
-      </c>
-      <c r="S58" s="8">
-        <v>3683.0514877484529</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>3770</v>
-      </c>
-      <c r="B59" s="6">
-        <f>_xlfn.RANK.EQ(A59,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F59" s="4">
-        <v>3</v>
-      </c>
-      <c r="N59" s="8">
-        <f t="shared" si="1"/>
-        <v>3484.6091386305152</v>
-      </c>
-      <c r="O59">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N59,$I$14,$I$16,FALSE)</f>
-        <v>2.2994715223406672E-3</v>
-      </c>
-      <c r="S59" s="8">
-        <v>3302.760813700952</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>3780</v>
-      </c>
-      <c r="B60" s="6">
-        <f>_xlfn.RANK.EQ(A60,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
-        <v>0.98333333333333328</v>
-      </c>
-      <c r="N60" s="8">
-        <f t="shared" si="1"/>
-        <v>3495.0000000000073</v>
-      </c>
-      <c r="O60">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N60,$I$14,$I$16,FALSE)</f>
-        <v>2.3036142984608336E-3</v>
-      </c>
-      <c r="S60" s="8">
-        <v>3593.3843367521331</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <f t="shared" si="0"/>
-        <v>3790</v>
-      </c>
-      <c r="B61" s="6">
-        <f>_xlfn.RANK.EQ(A61,$A$2:$A$61,1)/COUNT($A$2:$A$61)</f>
-        <v>1</v>
-      </c>
       <c r="N61" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3505.3908613694994</v>
       </c>
       <c r="O61">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N61,$I$14,$I$16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>2.2994715223406555E-3</v>
       </c>
-      <c r="S61" s="8">
-        <v>3498.2261226351693</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N62" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3515.7817227389914</v>
       </c>
       <c r="O62">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N62,$I$14,$I$16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>2.2870878421488564E-3</v>
       </c>
-      <c r="S62" s="8">
-        <v>3655.7528909062239</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N63" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3526.1725841084835</v>
       </c>
       <c r="O63">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N63,$I$14,$I$16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>2.2665964013700531E-3</v>
       </c>
-      <c r="S63" s="8">
-        <v>3443.7259922034355</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N64" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3536.5634454779756</v>
       </c>
       <c r="O64">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N64,$I$14,$I$16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>2.238216455835339E-3</v>
       </c>
-      <c r="S64" s="8">
-        <v>3734.5962094851711</v>
-      </c>
-    </row>
-    <row r="65" spans="14:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N65" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3546.9543068474677</v>
       </c>
       <c r="O65">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N65,$I$14,$I$16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>2.2022494684432493E-3</v>
       </c>
-      <c r="S65" s="8">
-        <v>3802.8098221521941</v>
-      </c>
-    </row>
-    <row r="66" spans="14:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N66" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3557.3451682169598</v>
       </c>
       <c r="O66">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N66,$I$14,$I$16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>2.1590737788357438E-3</v>
       </c>
-      <c r="S66" s="8">
-        <v>3508.533334413296</v>
-      </c>
-    </row>
-    <row r="67" spans="14:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N67" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3567.7360295864519</v>
       </c>
       <c r="O67">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N67,$I$14,$I$16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>2.1091379798093054E-3</v>
       </c>
-      <c r="S67" s="8">
-        <v>3397.967067237114</v>
-      </c>
-    </row>
-    <row r="68" spans="14:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N68" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3578.126890955944</v>
       </c>
       <c r="O68">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N68,$I$14,$I$16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>2.0529531625733109E-3</v>
       </c>
-      <c r="S68" s="8">
-        <v>3446.5567740445476</v>
-      </c>
-    </row>
-    <row r="69" spans="14:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N69" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3588.517752325436</v>
       </c>
       <c r="O69">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N69,$I$14,$I$16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1.9910842182057744E-3</v>
       </c>
-      <c r="S69" s="8">
-        <v>3339.3940209654102</v>
-      </c>
-    </row>
-    <row r="70" spans="14:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N70" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3598.9086136949281</v>
       </c>
       <c r="O70">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N70,$I$14,$I$16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1.9241404020853515E-3</v>
       </c>
-      <c r="S70" s="8">
-        <v>3427.2638282819753</v>
-      </c>
-    </row>
-    <row r="71" spans="14:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N71" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3609.2994750644202</v>
       </c>
       <c r="O71">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N71,$I$14,$I$16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1.8527653812025605E-3</v>
       </c>
-      <c r="S71" s="8">
-        <v>3324.6656075581268</v>
-      </c>
-    </row>
-    <row r="72" spans="14:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N72" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3619.6903364339123</v>
       </c>
       <c r="O72">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N72,$I$14,$I$16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1.7776269908116016E-3</v>
       </c>
-      <c r="S72" s="8">
-        <v>3478.8737182471959</v>
-      </c>
-    </row>
-    <row r="73" spans="14:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N73" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3630.0811978034044</v>
       </c>
       <c r="O73">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N73,$I$14,$I$16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1.699406926854436E-3</v>
       </c>
-      <c r="S73" s="8">
-        <v>3673.970068691342</v>
-      </c>
-    </row>
-    <row r="74" spans="14:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N74" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3640.4720591728965</v>
       </c>
       <c r="O74">
-        <f xml:space="preserve"> _xlfn.NORM.DIST(N74,$I$14,$I$16,FALSE)</f>
+        <f t="shared" ref="O74" si="6" xml:space="preserve"> _xlfn.NORM.DIST(N74,$I$14,$I$16,FALSE)</f>
         <v>1.6187905941814056E-3</v>
       </c>
-      <c r="S74" s="8">
-        <v>3620.7085283668857</v>
-      </c>
-    </row>
-    <row r="75" spans="14:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N75" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3650.8629205423886</v>
       </c>
       <c r="O75">
-        <f t="shared" ref="O75:O99" si="2" xml:space="preserve"> _xlfn.NORM.DIST(N75,$I$14,$I$16,FALSE)</f>
+        <f t="shared" ref="O75:O99" si="7" xml:space="preserve"> _xlfn.NORM.DIST(N75,$I$14,$I$16,FALSE)</f>
         <v>1.5364573182353135E-3</v>
       </c>
-      <c r="S75" s="8">
-        <v>3484.9987441949634</v>
-      </c>
-    </row>
-    <row r="76" spans="14:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N76" s="8">
-        <f t="shared" ref="N76:N100" si="3" xml:space="preserve"> N75 + $N$6</f>
+        <f t="shared" ref="N76:N100" si="8" xml:space="preserve"> N75 + $N$6</f>
         <v>3661.2537819118807</v>
       </c>
       <c r="O76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.453071110179239E-3</v>
       </c>
-      <c r="S76" s="8">
-        <v>3448.3178912770381</v>
-      </c>
-    </row>
-    <row r="77" spans="14:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N77" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3671.6446432813727</v>
       </c>
       <c r="O77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.3692721532149199E-3</v>
       </c>
-      <c r="S77" s="8">
-        <v>3583.4391925637829</v>
-      </c>
-    </row>
-    <row r="78" spans="14:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N78" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3682.0355046508648</v>
       </c>
       <c r="O78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.2856691519654102E-3</v>
       </c>
-      <c r="S78" s="8">
-        <v>3509.5835076182266</v>
-      </c>
-    </row>
-    <row r="79" spans="14:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N79" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3692.4263660203569</v>
       </c>
       <c r="O79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.2028326582742953E-3</v>
       </c>
-      <c r="S79" s="8">
-        <v>3537.3550171035458</v>
-      </c>
-    </row>
-    <row r="80" spans="14:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N80" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3702.817227389849</v>
       </c>
       <c r="O80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.1212894566373795E-3</v>
       </c>
-      <c r="S80" s="8">
-        <v>3614.3614185467595</v>
-      </c>
-    </row>
-    <row r="81" spans="11:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N81" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3713.2080887593411</v>
       </c>
       <c r="O81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.0415180617651878E-3</v>
       </c>
-      <c r="S81" s="8">
-        <v>3492.529120037143</v>
-      </c>
-    </row>
-    <row r="82" spans="11:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N82" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3723.5989501288332</v>
       </c>
       <c r="O82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>9.6394535047018663E-4</v>
       </c>
-      <c r="S82" s="8">
-        <v>3436.5096445318341</v>
-      </c>
-    </row>
-    <row r="83" spans="11:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N83" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3733.9898114983253</v>
       </c>
       <c r="O83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>8.8894432110096376E-4</v>
       </c>
-      <c r="S83" s="8">
-        <v>3622.0745016881847</v>
-      </c>
-    </row>
-    <row r="84" spans="11:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N84" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3744.3806728678173</v>
       </c>
       <c r="O84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>8.1683294692098973E-4</v>
       </c>
-      <c r="S84" s="8">
-        <v>3280.7402527188242</v>
-      </c>
-    </row>
-    <row r="85" spans="11:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N85" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3754.7715342373094</v>
       </c>
       <c r="O85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>7.4787406583721344E-4</v>
       </c>
-      <c r="S85" s="8">
-        <v>3315.2372808918881</v>
-      </c>
-    </row>
-    <row r="86" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="K86" s="8"/>
+    </row>
+    <row r="86" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N86" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3765.1623956068015</v>
       </c>
       <c r="O86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>6.8227622826238057E-4</v>
       </c>
-      <c r="S86" s="8">
-        <v>3398.4470676633646</v>
-      </c>
-    </row>
-    <row r="87" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="K87" s="8"/>
+    </row>
+    <row r="87" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N87" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3775.5532569762936</v>
       </c>
       <c r="O87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>6.2019540802741495E-4</v>
       </c>
-      <c r="S87" s="8">
-        <v>3375.9744636218966</v>
-      </c>
-    </row>
-    <row r="88" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="K88" s="8"/>
+    </row>
+    <row r="88" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N88" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3785.9441183457857</v>
       </c>
       <c r="O88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5.6173746837051759E-4</v>
       </c>
-      <c r="S88" s="8">
-        <v>3380.7283972938603</v>
-      </c>
-    </row>
-    <row r="89" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="K89" s="8"/>
+    </row>
+    <row r="89" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N89" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3796.3349797152778</v>
       </c>
       <c r="O89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5.0696126618724195E-4</v>
       </c>
-      <c r="S89" s="8">
-        <v>3246.5377613126475</v>
-      </c>
-    </row>
-    <row r="90" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="K90" s="8"/>
+    </row>
+    <row r="90" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N90" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3806.7258410847699</v>
       </c>
       <c r="O90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4.5588227285575813E-4</v>
       </c>
-      <c r="S90" s="8">
-        <v>3274.8644804788637</v>
-      </c>
-    </row>
-    <row r="91" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="K91" s="8"/>
+    </row>
+    <row r="91" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N91" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3817.1167024542619</v>
       </c>
       <c r="O91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4.0847658884953452E-4</v>
       </c>
-      <c r="S91" s="8">
-        <v>3805.4165512922918</v>
-      </c>
-    </row>
-    <row r="92" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="K92" s="8"/>
+    </row>
+    <row r="92" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N92" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3827.507563823754</v>
       </c>
       <c r="O92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3.6468523170150847E-4</v>
       </c>
-      <c r="S92" s="8">
-        <v>3664.0286652774375</v>
-      </c>
-    </row>
-    <row r="93" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="K93" s="8"/>
+    </row>
+    <row r="93" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N93" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3837.8984251932461</v>
       </c>
       <c r="O93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3.2441858228702799E-4</v>
       </c>
-      <c r="S93" s="8">
-        <v>3502.9582023090552</v>
-      </c>
-    </row>
-    <row r="94" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="K94" s="8"/>
+    </row>
+    <row r="94" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N94" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3848.2892865627382</v>
       </c>
       <c r="O94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.8756088238042948E-4</v>
       </c>
-      <c r="S94" s="8">
-        <v>3232.334631390695</v>
-      </c>
-    </row>
-    <row r="95" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="K95" s="8"/>
+    </row>
+    <row r="95" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N95" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3858.6801479322303</v>
       </c>
       <c r="O95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.5397468650419243E-4</v>
       </c>
-      <c r="S95" s="8">
-        <v>3569.1189173368184</v>
-      </c>
-    </row>
-    <row r="96" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="K96" s="8"/>
+    </row>
+    <row r="96" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N96" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3869.0710093017224</v>
       </c>
       <c r="O96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.2350518270464932E-4</v>
       </c>
-      <c r="S96" s="8">
-        <v>3524.5735783538476</v>
-      </c>
-    </row>
-    <row r="97" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="K97" s="8"/>
+    </row>
+    <row r="97" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N97" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3879.4618706712145</v>
       </c>
       <c r="O97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.9598430953238633E-4</v>
       </c>
-      <c r="S97" s="8">
-        <v>3821.6538749812753</v>
-      </c>
-    </row>
-    <row r="98" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="K98" s="8"/>
+    </row>
+    <row r="98" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N98" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3889.8527320407065</v>
       </c>
       <c r="O98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.7123460967963778E-4</v>
       </c>
-      <c r="S98" s="8">
-        <v>3385.4461045185599</v>
-      </c>
-    </row>
-    <row r="99" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="K99" s="8"/>
+    </row>
+    <row r="99" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N99" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3900.2435934101986</v>
       </c>
       <c r="O99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.4907277397068492E-4</v>
       </c>
-      <c r="S99" s="8">
-        <v>3715.6415084856417</v>
-      </c>
-    </row>
-    <row r="100" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="K100" s="8"/>
+    </row>
+    <row r="100" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N100" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3910.6344547796907</v>
       </c>
       <c r="O100">
         <f xml:space="preserve"> _xlfn.NORM.DIST(N100,$I$14,$I$16,FALSE)</f>
         <v>1.2931284230539511E-4</v>
-      </c>
-      <c r="S100" s="8">
-        <v>3715.0166022703343</v>
-      </c>
-    </row>
-    <row r="101" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="S101" s="8">
-        <v>3423.2119789086209</v>
-      </c>
-    </row>
-    <row r="102" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="S102" s="8">
-        <v>3604.3597689759918</v>
-      </c>
-    </row>
-    <row r="103" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="S103" s="8">
-        <v>3621.9012447664863</v>
-      </c>
-    </row>
-    <row r="104" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="S104" s="8">
-        <v>3428.8627140332392</v>
-      </c>
-    </row>
-    <row r="105" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="S105" s="8">
-        <v>3149.1823344159639</v>
-      </c>
-    </row>
-    <row r="106" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="S106" s="8">
-        <v>3689.6124123605841</v>
-      </c>
-    </row>
-    <row r="107" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="S107" s="8">
-        <v>3691.5926602224499</v>
-      </c>
-    </row>
-    <row r="108" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="S108" s="8">
-        <v>3432.6942514800248</v>
-      </c>
-    </row>
-    <row r="109" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="S109" s="8">
-        <v>3516.7506345734364</v>
-      </c>
-    </row>
-    <row r="110" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="S110" s="8">
-        <v>3276.5190840810828</v>
-      </c>
-    </row>
-    <row r="111" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="S111" s="8">
-        <v>3409.9550680385801</v>
-      </c>
-    </row>
-    <row r="112" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="S112" s="8">
-        <v>3674.3772224573331</v>
-      </c>
-    </row>
-    <row r="113" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S113" s="8">
-        <v>3765.1925943256356</v>
-      </c>
-    </row>
-    <row r="114" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S114" s="8">
-        <v>3483.6981359850324</v>
-      </c>
-    </row>
-    <row r="115" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S115" s="8">
-        <v>3344.6003914624453</v>
-      </c>
-    </row>
-    <row r="116" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S116" s="8">
-        <v>3438.986430980658</v>
-      </c>
-    </row>
-    <row r="117" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S117" s="8">
-        <v>3470.8838177967846</v>
-      </c>
-    </row>
-    <row r="118" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S118" s="8">
-        <v>3148.8893727120012</v>
-      </c>
-    </row>
-    <row r="119" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S119" s="8">
-        <v>3500.9031389582742</v>
-      </c>
-    </row>
-    <row r="120" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S120" s="8">
-        <v>3219.6325364358199</v>
-      </c>
-    </row>
-    <row r="121" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S121" s="8">
-        <v>3648.6324251901533</v>
-      </c>
-    </row>
-    <row r="122" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S122" s="8">
-        <v>3543.6497560814314</v>
-      </c>
-    </row>
-    <row r="123" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S123" s="8">
-        <v>3680.6097464496997</v>
-      </c>
-    </row>
-    <row r="124" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S124" s="8">
-        <v>3318.7646343113738</v>
-      </c>
-    </row>
-    <row r="125" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S125" s="8">
-        <v>3615.0510992248383</v>
-      </c>
-    </row>
-    <row r="126" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S126" s="8">
-        <v>3322.19827148685</v>
-      </c>
-    </row>
-    <row r="127" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S127" s="8">
-        <v>3633.8701479299925</v>
-      </c>
-    </row>
-    <row r="128" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S128" s="8">
-        <v>3492.7543540353508</v>
-      </c>
-    </row>
-    <row r="129" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S129" s="8">
-        <v>3614.0590064652497</v>
-      </c>
-    </row>
-    <row r="130" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S130" s="8">
-        <v>3680.7979664691811</v>
-      </c>
-    </row>
-    <row r="131" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S131" s="8">
-        <v>3430.1148890582408</v>
-      </c>
-    </row>
-    <row r="132" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S132" s="8">
-        <v>3529.2765193636296</v>
-      </c>
-    </row>
-    <row r="133" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S133" s="8">
-        <v>3683.7697164420388</v>
-      </c>
-    </row>
-    <row r="134" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S134" s="8">
-        <v>3435.5972893327998</v>
-      </c>
-    </row>
-    <row r="135" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S135" s="8">
-        <v>3544.4359093636376</v>
-      </c>
-    </row>
-    <row r="136" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S136" s="8">
-        <v>3554.669683832908</v>
-      </c>
-    </row>
-    <row r="137" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S137" s="8">
-        <v>3574.6158869434294</v>
-      </c>
-    </row>
-    <row r="138" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S138" s="8">
-        <v>3509.3972564274009</v>
-      </c>
-    </row>
-    <row r="139" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S139" s="8">
-        <v>3529.9793911937013</v>
-      </c>
-    </row>
-    <row r="140" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S140" s="8">
-        <v>3452.3990761973619</v>
-      </c>
-    </row>
-    <row r="141" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S141" s="8">
-        <v>3290.958867207446</v>
-      </c>
-    </row>
-    <row r="142" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S142" s="8">
-        <v>3579.865571670889</v>
-      </c>
-    </row>
-    <row r="143" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S143" s="8">
-        <v>3498.8886334777999</v>
-      </c>
-    </row>
-    <row r="144" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S144" s="8">
-        <v>3740.9665514834342</v>
-      </c>
-    </row>
-    <row r="145" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S145" s="8">
-        <v>3338.9175644307397</v>
-      </c>
-    </row>
-    <row r="146" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S146" s="8">
-        <v>3039.1641891375184</v>
-      </c>
-    </row>
-    <row r="147" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S147" s="8">
-        <v>3717.9879584774608</v>
-      </c>
-    </row>
-    <row r="148" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S148" s="8">
-        <v>3287.442539228432</v>
-      </c>
-    </row>
-    <row r="149" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S149" s="8">
-        <v>3413.1687870532187</v>
-      </c>
-    </row>
-    <row r="150" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S150" s="8">
-        <v>3910.7756604399765</v>
-      </c>
-    </row>
-    <row r="151" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S151" s="8">
-        <v>3326.3761258941668</v>
-      </c>
-    </row>
-    <row r="152" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S152" s="8">
-        <v>3469.6926764601085</v>
-      </c>
-    </row>
-    <row r="153" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S153" s="8">
-        <v>3532.6607389398487</v>
-      </c>
-    </row>
-    <row r="154" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S154" s="8">
-        <v>3555.1339336299134</v>
-      </c>
-    </row>
-    <row r="155" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S155" s="8">
-        <v>3415.2220784582096</v>
-      </c>
-    </row>
-    <row r="156" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S156" s="8">
-        <v>3454.0495452594041</v>
-      </c>
-    </row>
-    <row r="157" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S157" s="8">
-        <v>3386.9148506956844</v>
-      </c>
-    </row>
-    <row r="158" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S158" s="8">
-        <v>3360.3281822953431</v>
-      </c>
-    </row>
-    <row r="159" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S159" s="8">
-        <v>3570.2092546463246</v>
-      </c>
-    </row>
-    <row r="160" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S160" s="8">
-        <v>3350.4452530925118</v>
-      </c>
-    </row>
-    <row r="161" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S161" s="8">
-        <v>3211.955679741659</v>
-      </c>
-    </row>
-    <row r="162" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S162" s="8">
-        <v>3429.6457171895963</v>
-      </c>
-    </row>
-    <row r="163" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S163" s="8">
-        <v>3635.57633484299</v>
-      </c>
-    </row>
-    <row r="164" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S164" s="8">
-        <v>3387.4293056234092</v>
-      </c>
-    </row>
-    <row r="165" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S165" s="8">
-        <v>3492.6484310536762</v>
-      </c>
-    </row>
-    <row r="166" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S166" s="8">
-        <v>3384.8952262607054</v>
-      </c>
-    </row>
-    <row r="167" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S167" s="8">
-        <v>3688.7429776262434</v>
-      </c>
-    </row>
-    <row r="168" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S168" s="8">
-        <v>3199.8450209149451</v>
-      </c>
-    </row>
-    <row r="169" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S169" s="8">
-        <v>3689.8864733094524</v>
-      </c>
-    </row>
-    <row r="170" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S170" s="8">
-        <v>3662.6473350926244</v>
-      </c>
-    </row>
-    <row r="171" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S171" s="8">
-        <v>3548.9655934517214</v>
-      </c>
-    </row>
-    <row r="172" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S172" s="8">
-        <v>3591.5838429465293</v>
-      </c>
-    </row>
-    <row r="173" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S173" s="8">
-        <v>3262.9373164828576</v>
-      </c>
-    </row>
-    <row r="174" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S174" s="8">
-        <v>3484.7599252790314</v>
-      </c>
-    </row>
-    <row r="175" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S175" s="8">
-        <v>3689.5375968716689</v>
-      </c>
-    </row>
-    <row r="176" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S176" s="8">
-        <v>3335.9312451258302</v>
-      </c>
-    </row>
-    <row r="177" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S177" s="8">
-        <v>3675.8333681310614</v>
-      </c>
-    </row>
-    <row r="178" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S178" s="8">
-        <v>3415.9873621566658</v>
-      </c>
-    </row>
-    <row r="179" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S179" s="8">
-        <v>3205.7302435324527</v>
-      </c>
-    </row>
-    <row r="180" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S180" s="8">
-        <v>3294.8583292428521</v>
-      </c>
-    </row>
-    <row r="181" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S181" s="8">
-        <v>3562.9936945061854</v>
-      </c>
-    </row>
-    <row r="182" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S182" s="8">
-        <v>3640.2503340715339</v>
-      </c>
-    </row>
-    <row r="183" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S183" s="8">
-        <v>3556.7265191294791</v>
-      </c>
-    </row>
-    <row r="184" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S184" s="8">
-        <v>3426.6054519795216</v>
-      </c>
-    </row>
-    <row r="185" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S185" s="8">
-        <v>3670.8356934715266</v>
-      </c>
-    </row>
-    <row r="186" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S186" s="8">
-        <v>3253.9468573096383</v>
-      </c>
-    </row>
-    <row r="187" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S187" s="8">
-        <v>3710.3748918317433</v>
-      </c>
-    </row>
-    <row r="188" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S188" s="8">
-        <v>3368.566155156368</v>
-      </c>
-    </row>
-    <row r="189" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S189" s="8">
-        <v>3440.6867114076886</v>
-      </c>
-    </row>
-    <row r="190" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S190" s="8">
-        <v>3499.4054509999114</v>
-      </c>
-    </row>
-    <row r="191" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S191" s="8">
-        <v>3611.8204482837609</v>
-      </c>
-    </row>
-    <row r="192" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S192" s="8">
-        <v>3538.6804325545381</v>
-      </c>
-    </row>
-    <row r="193" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S193" s="8">
-        <v>3442.1460072072659</v>
-      </c>
-    </row>
-    <row r="194" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S194" s="8">
-        <v>3469.2908385314877</v>
-      </c>
-    </row>
-    <row r="195" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S195" s="8">
-        <v>3442.2985914280798</v>
-      </c>
-    </row>
-    <row r="196" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S196" s="8">
-        <v>3589.2706661589909</v>
-      </c>
-    </row>
-    <row r="197" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S197" s="8">
-        <v>3383.2036086797598</v>
-      </c>
-    </row>
-    <row r="198" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S198" s="8">
-        <v>3542.493266129095</v>
-      </c>
-    </row>
-    <row r="199" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S199" s="8">
-        <v>3372.9869630197936</v>
-      </c>
-    </row>
-    <row r="200" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S200" s="8">
-        <v>3594.0856335192802</v>
-      </c>
-    </row>
-    <row r="201" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S201" s="8">
-        <v>3468.8218635457088</v>
-      </c>
-    </row>
-    <row r="202" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S202" s="8">
-        <v>3496.3844803106622</v>
-      </c>
-    </row>
-    <row r="203" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S203" s="8">
-        <v>3211.3492805157148</v>
-      </c>
-    </row>
-    <row r="204" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S204" s="8">
-        <v>3441.8126845158622</v>
-      </c>
-    </row>
-    <row r="205" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S205" s="8">
-        <v>3464.5792346756207</v>
-      </c>
-    </row>
-    <row r="206" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S206" s="8">
-        <v>3650.2295389956271</v>
-      </c>
-    </row>
-    <row r="207" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S207" s="8">
-        <v>3541.1192206103078</v>
-      </c>
-    </row>
-    <row r="208" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S208" s="8">
-        <v>3369.3948351375366</v>
-      </c>
-    </row>
-    <row r="209" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S209" s="8">
-        <v>3430.2428629208589</v>
-      </c>
-    </row>
-    <row r="210" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S210" s="8">
-        <v>3475.5442321076043</v>
-      </c>
-    </row>
-    <row r="211" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S211" s="8">
-        <v>3651.2816810292134</v>
-      </c>
-    </row>
-    <row r="212" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S212" s="8">
-        <v>3267.3482802030048</v>
-      </c>
-    </row>
-    <row r="213" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S213" s="8">
-        <v>3543.9118071755001</v>
-      </c>
-    </row>
-    <row r="214" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S214" s="8">
-        <v>3352.3138683696016</v>
-      </c>
-    </row>
-    <row r="215" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S215" s="8">
-        <v>3722.9033360991889</v>
-      </c>
-    </row>
-    <row r="216" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S216" s="8">
-        <v>3282.2416814516328</v>
-      </c>
-    </row>
-    <row r="217" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S217" s="8">
-        <v>3652.8807636633428</v>
-      </c>
-    </row>
-    <row r="218" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S218" s="8">
-        <v>3499.3127191702297</v>
-      </c>
-    </row>
-    <row r="219" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S219" s="8">
-        <v>3306.0381258811685</v>
-      </c>
-    </row>
-    <row r="220" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S220" s="8">
-        <v>3336.435659027411</v>
-      </c>
-    </row>
-    <row r="221" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S221" s="8">
-        <v>3584.0284629804228</v>
-      </c>
-    </row>
-    <row r="222" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S222" s="8">
-        <v>3476.9568666680425</v>
-      </c>
-    </row>
-    <row r="223" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S223" s="8">
-        <v>3107.3896147764754</v>
-      </c>
-    </row>
-    <row r="224" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S224" s="8">
-        <v>3040.4179392254446</v>
-      </c>
-    </row>
-    <row r="225" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S225" s="8">
-        <v>3194.0795030797017</v>
-      </c>
-    </row>
-    <row r="226" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S226" s="8">
-        <v>3482.9545094017885</v>
-      </c>
-    </row>
-    <row r="227" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S227" s="8">
-        <v>3414.6176480609211</v>
-      </c>
-    </row>
-    <row r="228" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S228" s="8">
-        <v>3515.0292876797903</v>
-      </c>
-    </row>
-    <row r="229" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S229" s="8">
-        <v>3477.7024620799421</v>
-      </c>
-    </row>
-    <row r="230" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S230" s="8">
-        <v>3606.7963913202402</v>
-      </c>
-    </row>
-    <row r="231" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S231" s="8">
-        <v>3807.6877920294646</v>
-      </c>
-    </row>
-    <row r="232" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S232" s="8">
-        <v>3345.9096625184611</v>
-      </c>
-    </row>
-    <row r="233" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S233" s="8">
-        <v>3077.7910322987009</v>
-      </c>
-    </row>
-    <row r="234" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S234" s="8">
-        <v>3752.1101216744864</v>
-      </c>
-    </row>
-    <row r="235" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S235" s="8">
-        <v>3777.3418421940005</v>
-      </c>
-    </row>
-    <row r="236" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S236" s="8">
-        <v>3454.185788202376</v>
-      </c>
-    </row>
-    <row r="237" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S237" s="8">
-        <v>3446.2124259126722</v>
-      </c>
-    </row>
-    <row r="238" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S238" s="8">
-        <v>3352.7596111772436</v>
-      </c>
-    </row>
-    <row r="239" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S239" s="8">
-        <v>3477.302986745708</v>
-      </c>
-    </row>
-    <row r="240" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S240" s="8">
-        <v>3279.7400877617474</v>
-      </c>
-    </row>
-    <row r="241" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S241" s="8">
-        <v>3699.9991648163996</v>
-      </c>
-    </row>
-    <row r="242" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S242" s="8">
-        <v>3246.5751690571051</v>
-      </c>
-    </row>
-    <row r="243" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S243" s="8">
-        <v>3462.0193636575277</v>
-      </c>
-    </row>
-    <row r="244" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S244" s="8">
-        <v>3551.768024160192</v>
-      </c>
-    </row>
-    <row r="245" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S245" s="8">
-        <v>3556.3173965348324</v>
-      </c>
-    </row>
-    <row r="246" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S246" s="8">
-        <v>3296.2215462040331</v>
-      </c>
-    </row>
-    <row r="247" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S247" s="8">
-        <v>3480.376722042929</v>
-      </c>
-    </row>
-    <row r="248" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S248" s="8">
-        <v>3485.357071010294</v>
-      </c>
-    </row>
-    <row r="249" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S249" s="8">
-        <v>3503.2631738678174</v>
-      </c>
-    </row>
-    <row r="250" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S250" s="8">
-        <v>3305.3399792398704</v>
-      </c>
-    </row>
-    <row r="251" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S251" s="8">
-        <v>3563.9678709250074</v>
-      </c>
-    </row>
-    <row r="252" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S252" s="8">
-        <v>3586.669449739129</v>
-      </c>
-    </row>
-    <row r="253" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S253" s="8">
-        <v>3286.789281880483</v>
-      </c>
-    </row>
-    <row r="254" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S254" s="8">
-        <v>3558.8345439710974</v>
-      </c>
-    </row>
-    <row r="255" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S255" s="8">
-        <v>3808.3666441499372</v>
-      </c>
-    </row>
-    <row r="256" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S256" s="8">
-        <v>3307.2587996476796</v>
-      </c>
-    </row>
-    <row r="257" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S257" s="8">
-        <v>3287.632728076569</v>
-      </c>
-    </row>
-    <row r="258" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S258" s="8">
-        <v>3474.5172910808105</v>
-      </c>
-    </row>
-    <row r="259" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S259" s="8">
-        <v>3671.2798612162442</v>
-      </c>
-    </row>
-    <row r="260" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S260" s="8">
-        <v>3423.3996082795056</v>
-      </c>
-    </row>
-    <row r="261" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S261" s="8">
-        <v>3577.2610082423125</v>
-      </c>
-    </row>
-    <row r="262" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S262" s="8">
-        <v>3318.9867181837326</v>
-      </c>
-    </row>
-    <row r="263" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S263" s="8">
-        <v>3645.1680742876488</v>
-      </c>
-    </row>
-    <row r="264" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S264" s="8">
-        <v>3463.7446482084852</v>
-      </c>
-    </row>
-    <row r="265" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S265" s="8">
-        <v>3836.1775302083697</v>
-      </c>
-    </row>
-    <row r="266" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S266" s="8">
-        <v>3324.5793728630088</v>
-      </c>
-    </row>
-    <row r="267" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S267" s="8">
-        <v>3464.4715397481559</v>
-      </c>
-    </row>
-    <row r="268" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S268" s="8">
-        <v>3585.9693342691753</v>
-      </c>
-    </row>
-    <row r="269" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S269" s="8">
-        <v>3493.7214426710125</v>
-      </c>
-    </row>
-    <row r="270" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S270" s="8">
-        <v>3407.7360012607824</v>
-      </c>
-    </row>
-    <row r="271" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S271" s="8">
-        <v>3589.3013798860193</v>
-      </c>
-    </row>
-    <row r="272" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S272" s="8">
-        <v>3363.3550594705594</v>
-      </c>
-    </row>
-    <row r="273" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S273" s="8">
-        <v>3453.8995205158426</v>
-      </c>
-    </row>
-    <row r="274" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S274" s="8">
-        <v>3503.5549542745866</v>
-      </c>
-    </row>
-    <row r="275" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S275" s="8">
-        <v>3290.2142562098743</v>
-      </c>
-    </row>
-    <row r="276" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S276" s="8">
-        <v>3369.4981986419589</v>
-      </c>
-    </row>
-    <row r="277" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S277" s="8">
-        <v>3477.6093364845292</v>
-      </c>
-    </row>
-    <row r="278" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S278" s="8">
-        <v>3553.9813813348883</v>
-      </c>
-    </row>
-    <row r="279" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S279" s="8">
-        <v>3429.6884407714242</v>
-      </c>
-    </row>
-    <row r="280" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S280" s="8">
-        <v>3540.4744292255782</v>
-      </c>
-    </row>
-    <row r="281" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S281" s="8">
-        <v>3605.0075136037049</v>
-      </c>
-    </row>
-    <row r="282" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S282" s="8">
-        <v>3664.1353757905745</v>
-      </c>
-    </row>
-    <row r="283" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S283" s="8">
-        <v>3245.345438678778</v>
-      </c>
-    </row>
-    <row r="284" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S284" s="8">
-        <v>3321.0394189401268</v>
-      </c>
-    </row>
-    <row r="285" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S285" s="8">
-        <v>3642.4845608299802</v>
-      </c>
-    </row>
-    <row r="286" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S286" s="8">
-        <v>3642.3703687679517</v>
-      </c>
-    </row>
-    <row r="287" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S287" s="8">
-        <v>3560.2690325296135</v>
-      </c>
-    </row>
-    <row r="288" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S288" s="8">
-        <v>3302.5154976504564</v>
-      </c>
-    </row>
-    <row r="289" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S289" s="8">
-        <v>3480.1904708521033</v>
-      </c>
-    </row>
-    <row r="290" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S290" s="8">
-        <v>3201.9185912550893</v>
-      </c>
-    </row>
-    <row r="291" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S291" s="8">
-        <v>3359.1779925947048</v>
-      </c>
-    </row>
-    <row r="292" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S292" s="8">
-        <v>3516.2700434985891</v>
-      </c>
-    </row>
-    <row r="293" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S293" s="8">
-        <v>3636.3697727912222</v>
-      </c>
-    </row>
-    <row r="294" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S294" s="8">
-        <v>3495.3776213361562</v>
-      </c>
-    </row>
-    <row r="295" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S295" s="8">
-        <v>3234.5720082749904</v>
-      </c>
-    </row>
-    <row r="296" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S296" s="8">
-        <v>3624.8832326483534</v>
-      </c>
-    </row>
-    <row r="297" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S297" s="8">
-        <v>3506.0762362510286</v>
-      </c>
-    </row>
-    <row r="298" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S298" s="8">
-        <v>3715.7907456977409</v>
-      </c>
-    </row>
-    <row r="299" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S299" s="8">
-        <v>3557.6449776973459</v>
-      </c>
-    </row>
-    <row r="300" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S300" s="8">
-        <v>3242.6953953082557</v>
-      </c>
-    </row>
-    <row r="301" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S301" s="8">
-        <v>3523.7673430193536</v>
-      </c>
-    </row>
-    <row r="302" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S302" s="8">
-        <v>3755.9209864203876</v>
-      </c>
-    </row>
-    <row r="303" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S303" s="8">
-        <v>3318.3192852694629</v>
-      </c>
-    </row>
-    <row r="304" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S304" s="8">
-        <v>3458.4101069659664</v>
-      </c>
-    </row>
-    <row r="305" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S305" s="8">
-        <v>3576.4165776318987</v>
-      </c>
-    </row>
-    <row r="306" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S306" s="8">
-        <v>3627.3535219626137</v>
-      </c>
-    </row>
-    <row r="307" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S307" s="8">
-        <v>3334.6137049894605</v>
-      </c>
-    </row>
-    <row r="308" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S308" s="8">
-        <v>3417.0296600469737</v>
-      </c>
-    </row>
-    <row r="309" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S309" s="8">
-        <v>3255.4037905148289</v>
-      </c>
-    </row>
-    <row r="310" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S310" s="8">
-        <v>3792.3868432491145</v>
-      </c>
-    </row>
-    <row r="311" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S311" s="8">
-        <v>3299.6886534666555</v>
-      </c>
-    </row>
-    <row r="312" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S312" s="8">
-        <v>3202.6919471510337</v>
-      </c>
-    </row>
-    <row r="313" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S313" s="8">
-        <v>3205.7302435324527</v>
-      </c>
-    </row>
-    <row r="314" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S314" s="8">
-        <v>3304.8808483973698</v>
-      </c>
-    </row>
-    <row r="315" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S315" s="8">
-        <v>3224.0891769807786</v>
-      </c>
-    </row>
-    <row r="316" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S316" s="8">
-        <v>3649.2616628285032</v>
-      </c>
-    </row>
-    <row r="317" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S317" s="8">
-        <v>3357.2595659526269</v>
-      </c>
-    </row>
-    <row r="318" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S318" s="8">
-        <v>3658.6907770262042</v>
-      </c>
-    </row>
-    <row r="319" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S319" s="8">
-        <v>3552.6354900658771</v>
-      </c>
-    </row>
-    <row r="320" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S320" s="8">
-        <v>3504.4704595994699</v>
-      </c>
-    </row>
-    <row r="321" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S321" s="8">
-        <v>3604.2790470011096</v>
-      </c>
-    </row>
-    <row r="322" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S322" s="8">
-        <v>3524.6676883635882</v>
-      </c>
-    </row>
-    <row r="323" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S323" s="8">
-        <v>3600.0594534262927</v>
-      </c>
-    </row>
-    <row r="324" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S324" s="8">
-        <v>3512.8966524799762</v>
-      </c>
-    </row>
-    <row r="325" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S325" s="8">
-        <v>3762.3212546142167</v>
-      </c>
-    </row>
-    <row r="326" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S326" s="8">
-        <v>3532.6065961518179</v>
-      </c>
-    </row>
-    <row r="327" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S327" s="8">
-        <v>3526.2687398263733</v>
-      </c>
-    </row>
-    <row r="328" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S328" s="8">
-        <v>3908.6776766245021</v>
-      </c>
-    </row>
-    <row r="329" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S329" s="8">
-        <v>3548.7848549811315</v>
-      </c>
-    </row>
-    <row r="330" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S330" s="8">
-        <v>3493.9466766692203</v>
-      </c>
-    </row>
-    <row r="331" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S331" s="8">
-        <v>3616.7752024786023</v>
-      </c>
-    </row>
-    <row r="332" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S332" s="8">
-        <v>3374.1221896226489</v>
-      </c>
-    </row>
-    <row r="333" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S333" s="8">
-        <v>3580.299107740866</v>
-      </c>
-    </row>
-    <row r="334" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S334" s="8">
-        <v>3221.5848269307753</v>
-      </c>
-    </row>
-    <row r="335" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S335" s="8">
-        <v>3305.6293970522529</v>
-      </c>
-    </row>
-    <row r="336" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S336" s="8">
-        <v>3742.7959870702762</v>
-      </c>
-    </row>
-    <row r="337" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S337" s="8">
-        <v>3372.7152646653121</v>
-      </c>
-    </row>
-    <row r="338" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S338" s="8">
-        <v>3493.39028569113</v>
-      </c>
-    </row>
-    <row r="339" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S339" s="8">
-        <v>3727.6171056665771</v>
-      </c>
-    </row>
-    <row r="340" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S340" s="8">
-        <v>3364.0789977672466</v>
-      </c>
-    </row>
-    <row r="341" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S341" s="8">
-        <v>3638.5437533928052</v>
-      </c>
-    </row>
-    <row r="342" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S342" s="8">
-        <v>3487.0549888429377</v>
-      </c>
-    </row>
-    <row r="343" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S343" s="8">
-        <v>3708.6344473001373</v>
-      </c>
-    </row>
-    <row r="344" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S344" s="8">
-        <v>3622.6301051348128</v>
-      </c>
-    </row>
-    <row r="345" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S345" s="8">
-        <v>3643.2669733377406</v>
-      </c>
-    </row>
-    <row r="346" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S346" s="8">
-        <v>3363.6555027234135</v>
-      </c>
-    </row>
-    <row r="347" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S347" s="8">
-        <v>3404.1220193804475</v>
-      </c>
-    </row>
-    <row r="348" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S348" s="8">
-        <v>3668.2600718241883</v>
-      </c>
-    </row>
-    <row r="349" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S349" s="8">
-        <v>3251.1582084017573</v>
-      </c>
-    </row>
-    <row r="350" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S350" s="8">
-        <v>3621.9532218429958</v>
-      </c>
-    </row>
-    <row r="351" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S351" s="8">
-        <v>3131.8771180641488</v>
-      </c>
-    </row>
-    <row r="352" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S352" s="8">
-        <v>3376.3768921991141</v>
-      </c>
-    </row>
-    <row r="353" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S353" s="8">
-        <v>3428.6347236749134</v>
-      </c>
-    </row>
-    <row r="354" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S354" s="8">
-        <v>3952.9904969432391</v>
-      </c>
-    </row>
-    <row r="355" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S355" s="8">
-        <v>3588.6107147936127</v>
-      </c>
-    </row>
-    <row r="356" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S356" s="8">
-        <v>3534.4943090668676</v>
-      </c>
-    </row>
-    <row r="357" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S357" s="8">
-        <v>3516.336786790016</v>
-      </c>
-    </row>
-    <row r="358" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S358" s="8">
-        <v>3438.9444949302924</v>
-      </c>
-    </row>
-    <row r="359" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S359" s="8">
-        <v>3577.7506559289759</v>
-      </c>
-    </row>
-    <row r="360" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S360" s="8">
-        <v>3378.7607499353908</v>
-      </c>
-    </row>
-    <row r="361" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S361" s="8">
-        <v>3093.1730968196644</v>
-      </c>
-    </row>
-    <row r="362" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S362" s="8">
-        <v>3828.073831461661</v>
-      </c>
-    </row>
-    <row r="363" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S363" s="8">
-        <v>3909.6006634982768</v>
-      </c>
-    </row>
-    <row r="364" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S364" s="8">
-        <v>3664.1566391400556</v>
-      </c>
-    </row>
-    <row r="365" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S365" s="8">
-        <v>3372.6302112673875</v>
-      </c>
-    </row>
-    <row r="366" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S366" s="8">
-        <v>3643.1901890201698</v>
-      </c>
-    </row>
-    <row r="367" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S367" s="8">
-        <v>3505.9435371996369</v>
-      </c>
-    </row>
-    <row r="368" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S368" s="8">
-        <v>3446.8873403758334</v>
-      </c>
-    </row>
-    <row r="369" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S369" s="8">
-        <v>3450.9228484713458</v>
-      </c>
-    </row>
-    <row r="370" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S370" s="8">
-        <v>3846.0311238642316</v>
-      </c>
-    </row>
-    <row r="371" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S371" s="8">
-        <v>3566.0091524751988</v>
-      </c>
-    </row>
-    <row r="372" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S372" s="8">
-        <v>3320.4901157451968</v>
-      </c>
-    </row>
-    <row r="373" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S373" s="8">
-        <v>3329.1009847536043</v>
-      </c>
-    </row>
-    <row r="374" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S374" s="8">
-        <v>3611.0730809260713</v>
-      </c>
-    </row>
-    <row r="375" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S375" s="8">
-        <v>3385.7532417888433</v>
-      </c>
-    </row>
-    <row r="376" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S376" s="8">
-        <v>3312.4667452076392</v>
-      </c>
-    </row>
-    <row r="377" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S377" s="8">
-        <v>3310.3053651094524</v>
-      </c>
-    </row>
-    <row r="378" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S378" s="8">
-        <v>3766.5881000767695</v>
-      </c>
-    </row>
-    <row r="379" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S379" s="8">
-        <v>3504.3641428520641</v>
-      </c>
-    </row>
-    <row r="380" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S380" s="8">
-        <v>3413.9677377216867</v>
-      </c>
-    </row>
-    <row r="381" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S381" s="8">
-        <v>3458.5997051655067</v>
-      </c>
-    </row>
-    <row r="382" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S382" s="8">
-        <v>3659.8957001634699</v>
-      </c>
-    </row>
-    <row r="383" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S383" s="8">
-        <v>3470.5760898779045</v>
-      </c>
-    </row>
-    <row r="384" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S384" s="8">
-        <v>3564.4126293183217</v>
-      </c>
-    </row>
-    <row r="385" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S385" s="8">
-        <v>3502.2287512921321</v>
-      </c>
-    </row>
-    <row r="386" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S386" s="8">
-        <v>3798.2862414329429</v>
-      </c>
-    </row>
-    <row r="387" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S387" s="8">
-        <v>3497.6033821313831</v>
-      </c>
-    </row>
-    <row r="388" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S388" s="8">
-        <v>3694.9865270590817</v>
-      </c>
-    </row>
-    <row r="389" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S389" s="8">
-        <v>3420.7794911045494</v>
-      </c>
-    </row>
-    <row r="390" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S390" s="8">
-        <v>3857.0549892730196</v>
-      </c>
-    </row>
-    <row r="391" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S391" s="8">
-        <v>3401.2050028442172</v>
-      </c>
-    </row>
-    <row r="392" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S392" s="8">
-        <v>3296.987420551086</v>
-      </c>
-    </row>
-    <row r="393" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S393" s="8">
-        <v>3359.4481158862618</v>
-      </c>
-    </row>
-    <row r="394" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S394" s="8">
-        <v>3936.0932218888775</v>
-      </c>
-    </row>
-    <row r="395" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S395" s="8">
-        <v>3529.3710231391015</v>
-      </c>
-    </row>
-    <row r="396" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S396" s="8">
-        <v>3443.5460412643079</v>
-      </c>
-    </row>
-    <row r="397" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S397" s="8">
-        <v>3694.0092005144106</v>
-      </c>
-    </row>
-    <row r="398" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S398" s="8">
-        <v>3476.5571944509429</v>
-      </c>
-    </row>
-    <row r="399" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S399" s="8">
-        <v>3594.7731484858377</v>
-      </c>
-    </row>
-    <row r="400" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S400" s="8">
-        <v>3688.3224358253938</v>
-      </c>
-    </row>
-    <row r="401" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S401" s="8">
-        <v>3381.5340419797576</v>
-      </c>
-    </row>
-    <row r="402" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S402" s="8">
-        <v>3339.0565637338295</v>
-      </c>
-    </row>
-    <row r="403" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S403" s="8">
-        <v>3638.1145487458707</v>
-      </c>
-    </row>
-    <row r="404" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S404" s="8">
-        <v>3381.0575854450872</v>
-      </c>
-    </row>
-    <row r="405" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S405" s="8">
-        <v>3213.4063126951514</v>
-      </c>
-    </row>
-    <row r="406" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S406" s="8">
-        <v>3475.5708112944558</v>
-      </c>
-    </row>
-    <row r="407" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S407" s="8">
-        <v>3453.572498076137</v>
-      </c>
-    </row>
-    <row r="408" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S408" s="8">
-        <v>3784.8596175327839</v>
-      </c>
-    </row>
-    <row r="409" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S409" s="8">
-        <v>3857.8850474342471</v>
-      </c>
-    </row>
-    <row r="410" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S410" s="8">
-        <v>3632.7404340473731</v>
-      </c>
-    </row>
-    <row r="411" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S411" s="8">
-        <v>3485.9010583678537</v>
-      </c>
-    </row>
-    <row r="412" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S412" s="8">
-        <v>3369.0154418555903</v>
-      </c>
-    </row>
-    <row r="413" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S413" s="8">
-        <v>3504.0989416321463</v>
-      </c>
-    </row>
-    <row r="414" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S414" s="8">
-        <v>3438.916537563382</v>
-      </c>
-    </row>
-    <row r="415" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S415" s="8">
-        <v>3243.6105068674078</v>
-      </c>
-    </row>
-    <row r="416" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S416" s="8">
-        <v>3496.3313219369593</v>
-      </c>
-    </row>
-    <row r="417" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S417" s="8">
-        <v>3361.9178145519254</v>
-      </c>
-    </row>
-    <row r="418" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S418" s="8">
-        <v>3610.6257630555046</v>
-      </c>
-    </row>
-    <row r="419" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S419" s="8">
-        <v>3502.454379056071</v>
-      </c>
-    </row>
-    <row r="420" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S420" s="8">
-        <v>3488.2616839259936</v>
-      </c>
-    </row>
-    <row r="421" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S421" s="8">
-        <v>3396.8491663264285</v>
-      </c>
-    </row>
-    <row r="422" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S422" s="8">
-        <v>3579.6117896571741</v>
-      </c>
-    </row>
-    <row r="423" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S423" s="8">
-        <v>3657.5756324756367</v>
-      </c>
-    </row>
-    <row r="424" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S424" s="8">
-        <v>3538.1746404728983</v>
-      </c>
-    </row>
-    <row r="425" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S425" s="8">
-        <v>3516.724055386585</v>
-      </c>
-    </row>
-    <row r="426" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S426" s="8">
-        <v>3706.8317877830123</v>
-      </c>
-    </row>
-    <row r="427" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S427" s="8">
-        <v>3635.1162195861616</v>
-      </c>
-    </row>
-    <row r="428" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S428" s="8">
-        <v>3415.442981033375</v>
-      </c>
-    </row>
-    <row r="429" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S429" s="8">
-        <v>3508.0682970848284</v>
-      </c>
-    </row>
-    <row r="430" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S430" s="8">
-        <v>3476.7036753029242</v>
-      </c>
-    </row>
-    <row r="431" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S431" s="8">
-        <v>3559.700434813858</v>
-      </c>
-    </row>
-    <row r="432" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S432" s="8">
-        <v>3648.8682908631017</v>
-      </c>
-    </row>
-    <row r="433" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S433" s="8">
-        <v>3579.9852764531533</v>
-      </c>
-    </row>
-    <row r="434" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S434" s="8">
-        <v>3599.9001751880496</v>
-      </c>
-    </row>
-    <row r="435" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S435" s="8">
-        <v>3597.8701159611956</v>
-      </c>
-    </row>
-    <row r="436" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S436" s="8">
-        <v>3520.950342978831</v>
-      </c>
-    </row>
-    <row r="437" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S437" s="8">
-        <v>3528.7902186856809</v>
-      </c>
-    </row>
-    <row r="438" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S438" s="8">
-        <v>3475.6641337727342</v>
-      </c>
-    </row>
-    <row r="439" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S439" s="8">
-        <v>3038.7357720220461</v>
-      </c>
-    </row>
-    <row r="440" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S440" s="8">
-        <v>3439.405003952852</v>
-      </c>
-    </row>
-    <row r="441" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S441" s="8">
-        <v>3135.3832081341534</v>
-      </c>
-    </row>
-    <row r="442" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S442" s="8">
-        <v>3731.8997017583752</v>
-      </c>
-    </row>
-    <row r="443" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S443" s="8">
-        <v>3795.7409397469019</v>
-      </c>
-    </row>
-    <row r="444" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S444" s="8">
-        <v>3483.2864539131333</v>
-      </c>
-    </row>
-    <row r="445" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S445" s="8">
-        <v>3819.4046851250459</v>
-      </c>
-    </row>
-    <row r="446" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S446" s="8">
-        <v>3734.5269067164918</v>
-      </c>
-    </row>
-    <row r="447" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S447" s="8">
-        <v>3540.1180712389032</v>
-      </c>
-    </row>
-    <row r="448" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S448" s="8">
-        <v>3778.3979218848981</v>
-      </c>
-    </row>
-    <row r="449" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S449" s="8">
-        <v>3368.7390183123352</v>
-      </c>
-    </row>
-    <row r="450" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S450" s="8">
-        <v>3405.5935219176899</v>
-      </c>
-    </row>
-    <row r="451" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S451" s="8">
-        <v>3321.5213881950331</v>
-      </c>
-    </row>
-    <row r="452" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S452" s="8">
-        <v>3454.8392424331905</v>
-      </c>
-    </row>
-    <row r="453" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S453" s="8">
-        <v>3573.8950987725912</v>
-      </c>
-    </row>
-    <row r="454" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S454" s="8">
-        <v>3740.8578721416416</v>
-      </c>
-    </row>
-    <row r="455" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S455" s="8">
-        <v>3369.3430549438926</v>
-      </c>
-    </row>
-    <row r="456" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S456" s="8">
-        <v>3216.4918609643064</v>
-      </c>
-    </row>
-    <row r="457" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S457" s="8">
-        <v>3271.4339934292366</v>
-      </c>
-    </row>
-    <row r="458" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S458" s="8">
-        <v>3556.994870475246</v>
-      </c>
-    </row>
-    <row r="459" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S459" s="8">
-        <v>3750.5649849455222</v>
-      </c>
-    </row>
-    <row r="460" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S460" s="8">
-        <v>4033.0162940127775</v>
-      </c>
-    </row>
-    <row r="461" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S461" s="8">
-        <v>3461.7901920020086</v>
-      </c>
-    </row>
-    <row r="462" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S462" s="8">
-        <v>3451.538304309106</v>
-      </c>
-    </row>
-    <row r="463" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S463" s="8">
-        <v>3623.570614583623</v>
-      </c>
-    </row>
-    <row r="464" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S464" s="8">
-        <v>3261.8268971210637</v>
-      </c>
-    </row>
-    <row r="465" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S465" s="8">
-        <v>3430.5694915948334</v>
-      </c>
-    </row>
-    <row r="466" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S466" s="8">
-        <v>3699.7589677204087</v>
-      </c>
-    </row>
-    <row r="467" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S467" s="8">
-        <v>3696.7777673700039</v>
-      </c>
-    </row>
-    <row r="468" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S468" s="8">
-        <v>3119.8089859363972</v>
-      </c>
-    </row>
-    <row r="469" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S469" s="8">
-        <v>3321.6308550682879</v>
-      </c>
-    </row>
-    <row r="470" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S470" s="8">
-        <v>3616.9279835822817</v>
-      </c>
-    </row>
-    <row r="471" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S471" s="8">
-        <v>3394.2243239626987</v>
-      </c>
-    </row>
-    <row r="472" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S472" s="8">
-        <v>4088.5341119766235</v>
-      </c>
-    </row>
-    <row r="473" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S473" s="8">
-        <v>3603.1820156741742</v>
-      </c>
-    </row>
-    <row r="474" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S474" s="8">
-        <v>3303.933841813996</v>
-      </c>
-    </row>
-    <row r="475" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S475" s="8">
-        <v>3627.7443344507628</v>
-      </c>
-    </row>
-    <row r="476" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S476" s="8">
-        <v>3664.1566391400556</v>
-      </c>
-    </row>
-    <row r="477" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S477" s="8">
-        <v>3548.3540752712724</v>
-      </c>
-    </row>
-    <row r="478" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S478" s="8">
-        <v>3303.5928406908351</v>
-      </c>
-    </row>
-    <row r="479" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S479" s="8">
-        <v>3383.611156211482</v>
-      </c>
-    </row>
-    <row r="480" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S480" s="8">
-        <v>3521.3657658251759</v>
-      </c>
-    </row>
-    <row r="481" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S481" s="8">
-        <v>3275.3098295207747</v>
-      </c>
-    </row>
-    <row r="482" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S482" s="8">
-        <v>3364.1496787159849</v>
-      </c>
-    </row>
-    <row r="483" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S483" s="8">
-        <v>3698.2476948443218</v>
-      </c>
-    </row>
-    <row r="484" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S484" s="8">
-        <v>3515.0692549015002</v>
-      </c>
-    </row>
-    <row r="485" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S485" s="8">
-        <v>3223.8639429825707</v>
-      </c>
-    </row>
-    <row r="486" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S486" s="8">
-        <v>3390.9261421987321</v>
-      </c>
-    </row>
-    <row r="487" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S487" s="8">
-        <v>3028.6175677948631</v>
-      </c>
-    </row>
-    <row r="488" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S488" s="8">
-        <v>3397.2067056102969</v>
-      </c>
-    </row>
-    <row r="489" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S489" s="8">
-        <v>3602.5063136795507</v>
-      </c>
-    </row>
-    <row r="490" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S490" s="8">
-        <v>3702.8019892906013</v>
-      </c>
-    </row>
-    <row r="491" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S491" s="8">
-        <v>3418.6098419260088</v>
-      </c>
-    </row>
-    <row r="492" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S492" s="8">
-        <v>3567.1780460480659</v>
-      </c>
-    </row>
-    <row r="493" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S493" s="8">
-        <v>3219.1623801528476</v>
-      </c>
-    </row>
-    <row r="494" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S494" s="8">
-        <v>3189.1637316922424</v>
-      </c>
-    </row>
-    <row r="495" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S495" s="8">
-        <v>3260.0439258904953</v>
-      </c>
-    </row>
-    <row r="496" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S496" s="8">
-        <v>3811.9042354784324</v>
-      </c>
-    </row>
-    <row r="497" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S497" s="8">
-        <v>3584.4064780823101</v>
-      </c>
-    </row>
-    <row r="498" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S498" s="8">
-        <v>3527.0367798849475</v>
-      </c>
-    </row>
-    <row r="499" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S499" s="8">
-        <v>3598.2973517794744</v>
-      </c>
-    </row>
-    <row r="500" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S500" s="8">
-        <v>3483.671556798181</v>
-      </c>
-    </row>
-    <row r="501" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S501" s="8">
-        <v>3490.5681666961027</v>
-      </c>
-    </row>
-    <row r="502" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S502" s="8">
-        <v>3509.2509724582851</v>
-      </c>
-    </row>
-    <row r="503" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S503" s="8">
-        <v>3870.6084057386033</v>
-      </c>
-    </row>
-    <row r="504" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S504" s="8">
-        <v>3657.49333543783</v>
-      </c>
-    </row>
-    <row r="505" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S505" s="8">
-        <v>3445.6469783227658</v>
-      </c>
-    </row>
-    <row r="506" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S506" s="8">
-        <v>3733.4968155638489</v>
-      </c>
-    </row>
-    <row r="507" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S507" s="8">
-        <v>3632.5947407268541</v>
-      </c>
-    </row>
-    <row r="508" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S508" s="8">
-        <v>3154.739156413707</v>
-      </c>
-    </row>
-    <row r="509" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S509" s="8">
-        <v>3545.831218231906</v>
-      </c>
-    </row>
-    <row r="510" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S510" s="8">
-        <v>3679.6946348905476</v>
-      </c>
-    </row>
-    <row r="511" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S511" s="8">
-        <v>3643.3622646446747</v>
-      </c>
-    </row>
-    <row r="512" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S512" s="8">
-        <v>3409.1921469345107</v>
-      </c>
-    </row>
-    <row r="513" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S513" s="8">
-        <v>3323.0680999869219</v>
-      </c>
-    </row>
-    <row r="514" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S514" s="8">
-        <v>3623.1171933442238</v>
-      </c>
-    </row>
-    <row r="515" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S515" s="8">
-        <v>3325.0518917403679</v>
-      </c>
-    </row>
-    <row r="516" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S516" s="8">
-        <v>3587.2339129147076</v>
-      </c>
-    </row>
-    <row r="517" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S517" s="8">
-        <v>3388.8076825652388</v>
-      </c>
-    </row>
-    <row r="518" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S518" s="8">
-        <v>3489.4813732781768</v>
-      </c>
-    </row>
-    <row r="519" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S519" s="8">
-        <v>3316.5489145422907</v>
-      </c>
-    </row>
-    <row r="520" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S520" s="8">
-        <v>3492.6484310536762</v>
-      </c>
-    </row>
-    <row r="521" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S521" s="8">
-        <v>3277.1632848172158</v>
-      </c>
-    </row>
-    <row r="522" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S522" s="8">
-        <v>3738.0235464089492</v>
-      </c>
-    </row>
-    <row r="523" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S523" s="8">
-        <v>3430.1434370737479</v>
-      </c>
-    </row>
-    <row r="524" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S524" s="8">
-        <v>3480.6956722851464</v>
-      </c>
-    </row>
-    <row r="525" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S525" s="8">
-        <v>3352.6855832197907</v>
-      </c>
-    </row>
-    <row r="526" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S526" s="8">
-        <v>3393.9416001677455</v>
-      </c>
-    </row>
-    <row r="527" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S527" s="8">
-        <v>3290.9852495114319</v>
-      </c>
-    </row>
-    <row r="528" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S528" s="8">
-        <v>3292.0948813417635</v>
-      </c>
-    </row>
-    <row r="529" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S529" s="8">
-        <v>3759.6499478942133</v>
-      </c>
-    </row>
-    <row r="530" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S530" s="8">
-        <v>3445.577872436952</v>
-      </c>
-    </row>
-    <row r="531" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S531" s="8">
-        <v>3617.7611918693583</v>
-      </c>
-    </row>
-    <row r="532" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S532" s="8">
-        <v>3582.790857287473</v>
-      </c>
-    </row>
-    <row r="533" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S533" s="8">
-        <v>3515.5894194323264</v>
-      </c>
-    </row>
-    <row r="534" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S534" s="8">
-        <v>3271.6470206897793</v>
-      </c>
-    </row>
-    <row r="535" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S535" s="8">
-        <v>3451.3878857998134</v>
-      </c>
-    </row>
-    <row r="536" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S536" s="8">
-        <v>3381.1725650385779</v>
-      </c>
-    </row>
-    <row r="537" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S537" s="8">
-        <v>3149.084680514643</v>
-      </c>
-    </row>
-    <row r="538" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S538" s="8">
-        <v>3442.076507555721</v>
-      </c>
-    </row>
-    <row r="539" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S539" s="8">
-        <v>3684.9498323382431</v>
-      </c>
-    </row>
-    <row r="540" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S540" s="8">
-        <v>3561.6791076127993</v>
-      </c>
-    </row>
-    <row r="541" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S541" s="8">
-        <v>3439.3073500515311</v>
-      </c>
-    </row>
-    <row r="542" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S542" s="8">
-        <v>3239.827599488417</v>
-      </c>
-    </row>
-    <row r="543" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S543" s="8">
-        <v>3506.0496570641772</v>
-      </c>
-    </row>
-    <row r="544" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S544" s="8">
-        <v>3528.7228847456572</v>
-      </c>
-    </row>
-    <row r="545" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S545" s="8">
-        <v>3503.594724613431</v>
-      </c>
-    </row>
-    <row r="546" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S546" s="8">
-        <v>3675.3313168238674</v>
-      </c>
-    </row>
-    <row r="547" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S547" s="8">
-        <v>3504.4438804126185</v>
-      </c>
-    </row>
-    <row r="548" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S548" s="8">
-        <v>3534.2493867821031</v>
-      </c>
-    </row>
-    <row r="549" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S549" s="8">
-        <v>3462.4781007342972</v>
-      </c>
-    </row>
-    <row r="550" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S550" s="8">
-        <v>3478.8071718386345</v>
-      </c>
-    </row>
-    <row r="551" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S551" s="8">
-        <v>3364.607234495561</v>
-      </c>
-    </row>
-    <row r="552" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S552" s="8">
-        <v>3396.5999126186216</v>
-      </c>
-    </row>
-    <row r="553" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S553" s="8">
-        <v>3559.9276376407215</v>
-      </c>
-    </row>
-    <row r="554" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S554" s="8">
-        <v>3583.6957309376157</v>
-      </c>
-    </row>
-    <row r="555" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S555" s="8">
-        <v>3450.7037178419705</v>
-      </c>
-    </row>
-    <row r="556" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S556" s="8">
-        <v>3485.5958899262259</v>
-      </c>
-    </row>
-    <row r="557" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S557" s="8">
-        <v>3758.1268620461924</v>
-      </c>
-    </row>
-    <row r="558" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S558" s="8">
-        <v>3342.1905451879138</v>
-      </c>
-    </row>
-    <row r="559" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S559" s="8">
-        <v>3741.7316382990248</v>
-      </c>
-    </row>
-    <row r="560" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S560" s="8">
-        <v>3554.4448436004313</v>
-      </c>
-    </row>
-    <row r="561" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S561" s="8">
-        <v>3247.9757937627437</v>
-      </c>
-    </row>
-    <row r="562" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S562" s="8">
-        <v>3523.2302465620887</v>
-      </c>
-    </row>
-    <row r="563" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S563" s="8">
-        <v>3501.5792347186289</v>
-      </c>
-    </row>
-    <row r="564" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S564" s="8">
-        <v>3423.2696655882319</v>
-      </c>
-    </row>
-    <row r="565" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S565" s="8">
-        <v>3533.5429710604512</v>
-      </c>
-    </row>
-    <row r="566" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S566" s="8">
-        <v>3757.8331128107675</v>
-      </c>
-    </row>
-    <row r="567" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S567" s="8">
-        <v>3424.0197893060395</v>
-      </c>
-    </row>
-    <row r="568" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S568" s="8">
-        <v>3270.2089882396831</v>
-      </c>
-    </row>
-    <row r="569" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S569" s="8">
-        <v>3478.7540134649316</v>
-      </c>
-    </row>
-    <row r="570" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S570" s="8">
-        <v>3407.7360012607824</v>
-      </c>
-    </row>
-    <row r="571" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S571" s="8">
-        <v>3739.4505534185737</v>
-      </c>
-    </row>
-    <row r="572" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S572" s="8">
-        <v>3365.3097125599015</v>
-      </c>
-    </row>
-    <row r="573" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S573" s="8">
-        <v>3538.338643899915</v>
-      </c>
-    </row>
-    <row r="574" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S574" s="8">
-        <v>3735.6704023997008</v>
-      </c>
-    </row>
-    <row r="575" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S575" s="8">
-        <v>3375.6555133796792</v>
-      </c>
-    </row>
-    <row r="576" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S576" s="8">
-        <v>3313.2960158374044</v>
-      </c>
-    </row>
-    <row r="577" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S577" s="8">
-        <v>3244.7823536832584</v>
-      </c>
-    </row>
-    <row r="578" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S578" s="8">
-        <v>3183.7218892879901</v>
-      </c>
-    </row>
-    <row r="579" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S579" s="8">
-        <v>3494.7680719843629</v>
-      </c>
-    </row>
-    <row r="580" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S580" s="8">
-        <v>3656.1608322036773</v>
-      </c>
-    </row>
-    <row r="581" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S581" s="8">
-        <v>3742.3911958986719</v>
-      </c>
-    </row>
-    <row r="582" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S582" s="8">
-        <v>3382.1081524157489</v>
-      </c>
-    </row>
-    <row r="583" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S583" s="8">
-        <v>3407.118773477232</v>
-      </c>
-    </row>
-    <row r="584" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S584" s="8">
-        <v>3570.8065972604527</v>
-      </c>
-    </row>
-    <row r="585" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S585" s="8">
-        <v>3526.6056064093573</v>
-      </c>
-    </row>
-    <row r="586" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S586" s="8">
-        <v>3653.9073109244055</v>
-      </c>
-    </row>
-    <row r="587" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S587" s="8">
-        <v>3709.0605018212227</v>
-      </c>
-    </row>
-    <row r="588" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S588" s="8">
-        <v>3568.4806230866525</v>
-      </c>
-    </row>
-    <row r="589" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S589" s="8">
-        <v>3533.8825940035531</v>
-      </c>
-    </row>
-    <row r="590" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S590" s="8">
-        <v>3879.2775520752184</v>
-      </c>
-    </row>
-    <row r="591" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S591" s="8">
-        <v>3257.3210358597134</v>
-      </c>
-    </row>
-    <row r="592" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S592" s="8">
-        <v>3951.6926450934261</v>
-      </c>
-    </row>
-    <row r="593" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S593" s="8">
-        <v>3718.9322087007167</v>
-      </c>
-    </row>
-    <row r="594" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S594" s="8">
-        <v>2976.363280210644</v>
-      </c>
-    </row>
-    <row r="595" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S595" s="8">
-        <v>3515.6961299454633</v>
-      </c>
-    </row>
-    <row r="596" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S596" s="8">
-        <v>3854.1615986806573</v>
-      </c>
-    </row>
-    <row r="597" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S597" s="8">
-        <v>3315.7357883075019</v>
-      </c>
-    </row>
-    <row r="598" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S598" s="8">
-        <v>3575.2053542429348</v>
-      </c>
-    </row>
-    <row r="599" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S599" s="8">
-        <v>3316.2783974850026</v>
-      </c>
-    </row>
-    <row r="600" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S600" s="8">
-        <v>3523.7941190890706</v>
-      </c>
-    </row>
-    <row r="601" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S601" s="8">
-        <v>3409.9997604490636</v>
-      </c>
-    </row>
-    <row r="602" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S602" s="8">
-        <v>3302.4662769340648</v>
-      </c>
-    </row>
-    <row r="603" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S603" s="8">
-        <v>3718.0186722044891</v>
-      </c>
-    </row>
-    <row r="604" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S604" s="8">
-        <v>3335.2228605755226</v>
-      </c>
-    </row>
-    <row r="605" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S605" s="8">
-        <v>3390.8469952867745</v>
-      </c>
-    </row>
-    <row r="606" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S606" s="8">
-        <v>3584.8156006769568</v>
-      </c>
-    </row>
-    <row r="607" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S607" s="8">
-        <v>3412.4422892792791</v>
-      </c>
-    </row>
-    <row r="608" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S608" s="8">
-        <v>3356.1479652936396</v>
-      </c>
-    </row>
-    <row r="609" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S609" s="8">
-        <v>3494.5296468341621</v>
-      </c>
-    </row>
-    <row r="610" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S610" s="8">
-        <v>3516.8307658997219</v>
-      </c>
-    </row>
-    <row r="611" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S611" s="8">
-        <v>3572.0477468449826</v>
-      </c>
-    </row>
-    <row r="612" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S612" s="8">
-        <v>3749.8979457969835</v>
-      </c>
-    </row>
-    <row r="613" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S613" s="8">
-        <v>3469.9470491224201</v>
-      </c>
-    </row>
-    <row r="614" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S614" s="8">
-        <v>3256.0920930128486</v>
-      </c>
-    </row>
-    <row r="615" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S615" s="8">
-        <v>3008.2425538031384</v>
-      </c>
-    </row>
-    <row r="616" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S616" s="8">
-        <v>3233.5001779548475</v>
-      </c>
-    </row>
-    <row r="617" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S617" s="8">
-        <v>3697.1175871959713</v>
-      </c>
-    </row>
-    <row r="618" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S618" s="8">
-        <v>3520.3340996096085</v>
-      </c>
-    </row>
-    <row r="619" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S619" s="8">
-        <v>3399.312564740394</v>
-      </c>
-    </row>
-    <row r="620" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S620" s="8">
-        <v>3717.2012145466579</v>
-      </c>
-    </row>
-    <row r="621" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S621" s="8">
-        <v>3634.2540695178468</v>
-      </c>
-    </row>
-    <row r="622" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S622" s="8">
-        <v>3211.3996825292998</v>
-      </c>
-    </row>
-    <row r="623" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S623" s="8">
-        <v>3598.0914123020921</v>
-      </c>
-    </row>
-    <row r="624" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S624" s="8">
-        <v>3272.9492039626348</v>
-      </c>
-    </row>
-    <row r="625" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S625" s="8">
-        <v>3842.9849521681899</v>
-      </c>
-    </row>
-    <row r="626" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S626" s="8">
-        <v>3378.4953518326074</v>
-      </c>
-    </row>
-    <row r="627" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S627" s="8">
-        <v>3472.8085446905607</v>
-      </c>
-    </row>
-    <row r="628" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S628" s="8">
-        <v>3268.3815214814967</v>
-      </c>
-    </row>
-    <row r="629" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S629" s="8">
-        <v>3216.2020493861928</v>
-      </c>
-    </row>
-    <row r="630" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S630" s="8">
-        <v>3290.2941906532942</v>
-      </c>
-    </row>
-    <row r="631" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S631" s="8">
-        <v>3589.3476473594274</v>
-      </c>
-    </row>
-    <row r="632" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S632" s="8">
-        <v>3395.8362039830899</v>
-      </c>
-    </row>
-    <row r="633" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S633" s="8">
-        <v>3791.0078756586881</v>
-      </c>
-    </row>
-    <row r="634" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S634" s="8">
-        <v>3779.7201872100413</v>
-      </c>
-    </row>
-    <row r="635" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S635" s="8">
-        <v>3627.513193966588</v>
-      </c>
-    </row>
-    <row r="636" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S636" s="8">
-        <v>3661.4239049659955</v>
-      </c>
-    </row>
-    <row r="637" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S637" s="8">
-        <v>3568.1908115085389</v>
-      </c>
-    </row>
-    <row r="638" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S638" s="8">
-        <v>3687.3372339661</v>
-      </c>
-    </row>
-    <row r="639" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S639" s="8">
-        <v>3549.5778991636325</v>
-      </c>
-    </row>
-    <row r="640" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S640" s="8">
-        <v>3436.6218677652068</v>
-      </c>
-    </row>
-    <row r="641" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S641" s="8">
-        <v>3378.1795517162391</v>
-      </c>
-    </row>
-    <row r="642" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S642" s="8">
-        <v>3391.1005804176239</v>
-      </c>
-    </row>
-    <row r="643" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S643" s="8">
-        <v>3559.6149876502022</v>
-      </c>
-    </row>
-    <row r="644" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S644" s="8">
-        <v>3421.7223631477464</v>
-      </c>
-    </row>
-    <row r="645" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S645" s="8">
-        <v>3768.6459197876684</v>
-      </c>
-    </row>
-    <row r="646" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S646" s="8">
-        <v>3410.149391426894</v>
-      </c>
-    </row>
-    <row r="647" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S647" s="8">
-        <v>3476.4239047509545</v>
-      </c>
-    </row>
-    <row r="648" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S648" s="8">
-        <v>3403.4065470469795</v>
-      </c>
-    </row>
-    <row r="649" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S649" s="8">
-        <v>3423.9187883960039</v>
-      </c>
-    </row>
-    <row r="650" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S650" s="8">
-        <v>3659.3546660488937</v>
-      </c>
-    </row>
-    <row r="651" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S651" s="8">
-        <v>3256.5031844361511</v>
-      </c>
-    </row>
-    <row r="652" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S652" s="8">
-        <v>3814.9929338734364</v>
-      </c>
-    </row>
-    <row r="653" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S653" s="8">
-        <v>3470.0541534012882</v>
-      </c>
-    </row>
-    <row r="654" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S654" s="8">
-        <v>3731.9335656112526</v>
-      </c>
-    </row>
-    <row r="655" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S655" s="8">
-        <v>3490.7004719817633</v>
-      </c>
-    </row>
-    <row r="656" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S656" s="8">
-        <v>3376.9122167105888</v>
-      </c>
-    </row>
-    <row r="657" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S657" s="8">
-        <v>3562.2217167903</v>
-      </c>
-    </row>
-    <row r="658" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S658" s="8">
-        <v>3504.3243725132197</v>
-      </c>
-    </row>
-    <row r="659" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S659" s="8">
-        <v>3668.5443706820661</v>
-      </c>
-    </row>
-    <row r="660" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S660" s="8">
-        <v>3233.789989532961</v>
-      </c>
-    </row>
-    <row r="661" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S661" s="8">
-        <v>3450.7174996425601</v>
-      </c>
-    </row>
-    <row r="662" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S662" s="8">
-        <v>3351.5123582238812</v>
-      </c>
-    </row>
-    <row r="663" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S663" s="8">
-        <v>3458.4642497539971</v>
-      </c>
-    </row>
-    <row r="664" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S664" s="8">
-        <v>3392.5088835550196</v>
-      </c>
-    </row>
-    <row r="665" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S665" s="8">
-        <v>3522.6529860002483</v>
-      </c>
-    </row>
-    <row r="666" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S666" s="8">
-        <v>3497.5106503017014</v>
-      </c>
-    </row>
-    <row r="667" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S667" s="8">
-        <v>3519.6513098318246</v>
-      </c>
-    </row>
-    <row r="668" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S668" s="8">
-        <v>3461.0881077033991</v>
-      </c>
-    </row>
-    <row r="669" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S669" s="8">
-        <v>3411.4614188430278</v>
-      </c>
-    </row>
-    <row r="670" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S670" s="8">
-        <v>3181.4285976698739</v>
-      </c>
-    </row>
-    <row r="671" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S671" s="8">
-        <v>3530.5609831785841</v>
-      </c>
-    </row>
-    <row r="672" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S672" s="8">
-        <v>3548.4511385239966</v>
-      </c>
-    </row>
-    <row r="673" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S673" s="8">
-        <v>3523.3779087112634</v>
-      </c>
-    </row>
-    <row r="674" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S674" s="8">
-        <v>3609.5685020674136</v>
-      </c>
-    </row>
-    <row r="675" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S675" s="8">
-        <v>3223.32133380507</v>
-      </c>
-    </row>
-    <row r="676" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S676" s="8">
-        <v>3442.1042680397659</v>
-      </c>
-    </row>
-    <row r="677" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S677" s="8">
-        <v>3569.3947502314768</v>
-      </c>
-    </row>
-    <row r="678" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S678" s="8">
-        <v>3480.8685354411136</v>
-      </c>
-    </row>
-    <row r="679" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S679" s="8">
-        <v>3425.2140807685646</v>
-      </c>
-    </row>
-    <row r="680" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S680" s="8">
-        <v>3538.2429588272498</v>
-      </c>
-    </row>
-    <row r="681" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S681" s="8">
-        <v>3502.5073405469084</v>
-      </c>
-    </row>
-    <row r="682" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S682" s="8">
-        <v>3354.4606791357364</v>
-      </c>
-    </row>
-    <row r="683" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S683" s="8">
-        <v>3637.2588958121196</v>
-      </c>
-    </row>
-    <row r="684" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S684" s="8">
-        <v>3518.6348035969058</v>
-      </c>
-    </row>
-    <row r="685" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S685" s="8">
-        <v>3604.1819837483854</v>
-      </c>
-    </row>
-    <row r="686" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S686" s="8">
-        <v>3387.3972137163219</v>
-      </c>
-    </row>
-    <row r="687" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S687" s="8">
-        <v>3522.747096009989</v>
-      </c>
-    </row>
-    <row r="688" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S688" s="8">
-        <v>3312.7667946947622</v>
-      </c>
-    </row>
-    <row r="689" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S689" s="8">
-        <v>3210.2798127899587</v>
-      </c>
-    </row>
-    <row r="690" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S690" s="8">
-        <v>3575.8105721716856</v>
-      </c>
-    </row>
-    <row r="691" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S691" s="8">
-        <v>3441.9239233349072</v>
-      </c>
-    </row>
-    <row r="692" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S692" s="8">
-        <v>3337.3602209641103</v>
-      </c>
-    </row>
-    <row r="693" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S693" s="8">
-        <v>3524.8828813356522</v>
-      </c>
-    </row>
-    <row r="694" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S694" s="8">
-        <v>3186.2860917291255</v>
-      </c>
-    </row>
-    <row r="695" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S695" s="8">
-        <v>3360.0950729825126</v>
-      </c>
-    </row>
-    <row r="696" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S696" s="8">
-        <v>3852.5833856302779</v>
-      </c>
-    </row>
-    <row r="697" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S697" s="8">
-        <v>3253.5617544245906</v>
-      </c>
-    </row>
-    <row r="698" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S698" s="8">
-        <v>3352.4812188053329</v>
-      </c>
-    </row>
-    <row r="699" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S699" s="8">
-        <v>3390.7040583263733</v>
-      </c>
-    </row>
-    <row r="700" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S700" s="8">
-        <v>3263.7799751474813</v>
-      </c>
-    </row>
-    <row r="701" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S701" s="8">
-        <v>3217.1659878960054</v>
-      </c>
-    </row>
-    <row r="702" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S702" s="8">
-        <v>3824.1188484581653</v>
-      </c>
-    </row>
-    <row r="703" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S703" s="8">
-        <v>3305.0257541864266</v>
-      </c>
-    </row>
-    <row r="704" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S704" s="8">
-        <v>3442.6732595212525</v>
-      </c>
-    </row>
-    <row r="705" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S705" s="8">
-        <v>3478.8871062820544</v>
-      </c>
-    </row>
-    <row r="706" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S706" s="8">
-        <v>3321.6962201796559</v>
-      </c>
-    </row>
-    <row r="707" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S707" s="8">
-        <v>3529.8441326650573</v>
-      </c>
-    </row>
-    <row r="708" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S708" s="8">
-        <v>3406.0321769421716</v>
-      </c>
-    </row>
-    <row r="709" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S709" s="8">
-        <v>3304.0314957153169</v>
-      </c>
-    </row>
-    <row r="710" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S710" s="8">
-        <v>3368.1334066178533</v>
-      </c>
-    </row>
-    <row r="711" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S711" s="8">
-        <v>3686.309505407844</v>
-      </c>
-    </row>
-    <row r="712" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S712" s="8">
-        <v>3540.213953194434</v>
-      </c>
-    </row>
-    <row r="713" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S713" s="8">
-        <v>3610.2619235199381</v>
-      </c>
-    </row>
-    <row r="714" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S714" s="8">
-        <v>3751.1178320320323</v>
-      </c>
-    </row>
-    <row r="715" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S715" s="8">
-        <v>3827.2343229228863</v>
-      </c>
-    </row>
-    <row r="716" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S716" s="8">
-        <v>3380.3986184940368</v>
-      </c>
-    </row>
-    <row r="717" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S717" s="8">
-        <v>3305.1710537412146</v>
-      </c>
-    </row>
-    <row r="718" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S718" s="8">
-        <v>3789.0847238278366</v>
-      </c>
-    </row>
-    <row r="719" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S719" s="8">
-        <v>3565.0158784184168</v>
-      </c>
-    </row>
-    <row r="720" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S720" s="8">
-        <v>3726.6732492090523</v>
-      </c>
-    </row>
-    <row r="721" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S721" s="8">
-        <v>3256.5716996733681</v>
-      </c>
-    </row>
-    <row r="722" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S722" s="8">
-        <v>3376.3934303598217</v>
-      </c>
-    </row>
-    <row r="723" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S723" s="8">
-        <v>3610.2784616806457</v>
-      </c>
-    </row>
-    <row r="724" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S724" s="8">
-        <v>3556.0494389547966</v>
-      </c>
-    </row>
-    <row r="725" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S725" s="8">
-        <v>3364.3256919978012</v>
-      </c>
-    </row>
-    <row r="726" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S726" s="8">
-        <v>3698.1421656283783</v>
-      </c>
-    </row>
-    <row r="727" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S727" s="8">
-        <v>3530.6826567895041</v>
-      </c>
-    </row>
-    <row r="728" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S728" s="8">
-        <v>3369.3777063282323</v>
-      </c>
-    </row>
-    <row r="729" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S729" s="8">
-        <v>3373.088948344157</v>
-      </c>
-    </row>
-    <row r="730" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S730" s="8">
-        <v>3281.8750855559483</v>
-      </c>
-    </row>
-    <row r="731" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S731" s="8">
-        <v>3958.4591154172085</v>
-      </c>
-    </row>
-    <row r="732" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S732" s="8">
-        <v>3702.4759512652236</v>
-      </c>
-    </row>
-    <row r="733" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S733" s="8">
-        <v>3905.092833408271</v>
-      </c>
-    </row>
-    <row r="734" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S734" s="8">
-        <v>3538.5437958458351</v>
-      </c>
-    </row>
-    <row r="735" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S735" s="8">
-        <v>3620.9156491414615</v>
-      </c>
-    </row>
-    <row r="736" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S736" s="8">
-        <v>3479.7518158276216</v>
-      </c>
-    </row>
-    <row r="737" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S737" s="8">
-        <v>3608.3838578653013</v>
-      </c>
-    </row>
-    <row r="738" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S738" s="8">
-        <v>3433.8800769793306</v>
-      </c>
-    </row>
-    <row r="739" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S739" s="8">
-        <v>3727.1603374184633</v>
-      </c>
-    </row>
-    <row r="740" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S740" s="8">
-        <v>3381.3369622313257</v>
-      </c>
-    </row>
-    <row r="741" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S741" s="8">
-        <v>3318.0290799256181</v>
-      </c>
-    </row>
-    <row r="742" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S742" s="8">
-        <v>3470.4154334596024</v>
-      </c>
-    </row>
-    <row r="743" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S743" s="8">
-        <v>3616.5040947727175</v>
-      </c>
-    </row>
-    <row r="744" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S744" s="8">
-        <v>3430.5267680130055</v>
-      </c>
-    </row>
-    <row r="745" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S745" s="8">
-        <v>3316.029931308658</v>
-      </c>
-    </row>
-    <row r="746" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S746" s="8">
-        <v>3701.2859912257409</v>
-      </c>
-    </row>
-    <row r="747" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S747" s="8">
-        <v>3350.482857719835</v>
-      </c>
-    </row>
-    <row r="748" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S748" s="8">
-        <v>3524.3719702995077</v>
-      </c>
-    </row>
-    <row r="749" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S749" s="8">
-        <v>3448.5100489538308</v>
-      </c>
-    </row>
-    <row r="750" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S750" s="8">
-        <v>3853.2543624361278</v>
-      </c>
-    </row>
-    <row r="751" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S751" s="8">
-        <v>3112.1085032983683</v>
-      </c>
-    </row>
-    <row r="752" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S752" s="8">
-        <v>3221.0304047813406</v>
-      </c>
-    </row>
-    <row r="753" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S753" s="8">
-        <v>3470.763325483058</v>
-      </c>
-    </row>
-    <row r="754" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S754" s="8">
-        <v>3451.4699859547545</v>
-      </c>
-    </row>
-    <row r="755" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S755" s="8">
-        <v>3566.6870201813435</v>
-      </c>
-    </row>
-    <row r="756" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S756" s="8">
-        <v>3510.9931889356812</v>
-      </c>
-    </row>
-    <row r="757" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S757" s="8">
-        <v>3411.0891133442419</v>
-      </c>
-    </row>
-    <row r="758" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S758" s="8">
-        <v>3313.0428244722862</v>
-      </c>
-    </row>
-    <row r="759" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S759" s="8">
-        <v>3498.7029729355709</v>
-      </c>
-    </row>
-    <row r="760" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S760" s="8">
-        <v>3396.1482633250125</v>
-      </c>
-    </row>
-    <row r="761" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S761" s="8">
-        <v>3517.4852045448642</v>
-      </c>
-    </row>
-    <row r="762" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S762" s="8">
-        <v>3756.7486819872283</v>
-      </c>
-    </row>
-    <row r="763" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S763" s="8">
-        <v>3656.0178952432761</v>
-      </c>
-    </row>
-    <row r="764" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S764" s="8">
-        <v>3615.4050946171265</v>
-      </c>
-    </row>
-    <row r="765" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S765" s="8">
-        <v>3501.4201533632513</v>
-      </c>
-    </row>
-    <row r="766" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S766" s="8">
-        <v>4048.1116970814764</v>
-      </c>
-    </row>
-    <row r="767" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S767" s="8">
-        <v>3486.5643567419465</v>
-      </c>
-    </row>
-    <row r="768" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S768" s="8">
-        <v>3268.0381577639491</v>
-      </c>
-    </row>
-    <row r="769" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S769" s="8">
-        <v>3889.0334918297594</v>
-      </c>
-    </row>
-    <row r="770" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S770" s="8">
-        <v>3684.1784452709544</v>
-      </c>
-    </row>
-    <row r="771" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S771" s="8">
-        <v>3629.188273386826</v>
-      </c>
-    </row>
-    <row r="772" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S772" s="8">
-        <v>3399.8059532015031</v>
-      </c>
-    </row>
-    <row r="773" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S773" s="8">
-        <v>3644.8207729127898</v>
-      </c>
-    </row>
-    <row r="774" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S774" s="8">
-        <v>3269.8392422181496</v>
-      </c>
-    </row>
-    <row r="775" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S775" s="8">
-        <v>3399.081030490488</v>
-      </c>
-    </row>
-    <row r="776" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S776" s="8">
-        <v>3405.9715370195772</v>
-      </c>
-    </row>
-    <row r="777" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S777" s="8">
-        <v>3552.2574749639898</v>
-      </c>
-    </row>
-    <row r="778" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S778" s="8">
-        <v>3544.2978944748756</v>
-      </c>
-    </row>
-    <row r="779" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S779" s="8">
-        <v>3270.4858055486693</v>
-      </c>
-    </row>
-    <row r="780" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S780" s="8">
-        <v>3717.4429867055733</v>
-      </c>
-    </row>
-    <row r="781" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S781" s="8">
-        <v>3512.0845106595152</v>
-      </c>
-    </row>
-    <row r="782" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S782" s="8">
-        <v>3495.8678596714162</v>
-      </c>
-    </row>
-    <row r="783" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S783" s="8">
-        <v>3454.6760265376361</v>
-      </c>
-    </row>
-    <row r="784" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S784" s="8">
-        <v>3501.2742631598667</v>
-      </c>
-    </row>
-    <row r="785" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S785" s="8">
-        <v>3539.857595207759</v>
-      </c>
-    </row>
-    <row r="786" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S786" s="8">
-        <v>3837.4785321840318</v>
-      </c>
-    </row>
-    <row r="787" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S787" s="8">
-        <v>3687.6565779740486</v>
-      </c>
-    </row>
-    <row r="788" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S788" s="8">
-        <v>3704.196707510273</v>
-      </c>
-    </row>
-    <row r="789" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S789" s="8">
-        <v>3226.4509838361118</v>
-      </c>
-    </row>
-    <row r="790" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S790" s="8">
-        <v>3456.130990914171</v>
-      </c>
-    </row>
-    <row r="791" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S791" s="8">
-        <v>3508.5864927869989</v>
-      </c>
-    </row>
-    <row r="792" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S792" s="8">
-        <v>3630.5158545493396</v>
-      </c>
-    </row>
-    <row r="793" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S793" s="8">
-        <v>3407.4650904377631</v>
-      </c>
-    </row>
-    <row r="794" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S794" s="8">
-        <v>3217.9306809458649</v>
-      </c>
-    </row>
-    <row r="795" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S795" s="8">
-        <v>3703.8399557578668</v>
-      </c>
-    </row>
-    <row r="796" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S796" s="8">
-        <v>3524.0494761657101</v>
-      </c>
-    </row>
-    <row r="797" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S797" s="8">
-        <v>3402.5371123126388</v>
-      </c>
-    </row>
-    <row r="798" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S798" s="8">
-        <v>3454.7031963730842</v>
-      </c>
-    </row>
-    <row r="799" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S799" s="8">
-        <v>3652.9811739247816</v>
-      </c>
-    </row>
-    <row r="800" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S800" s="8">
-        <v>3717.6548326689226</v>
-      </c>
-    </row>
-    <row r="801" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S801" s="8">
-        <v>3521.1915244891497</v>
-      </c>
-    </row>
-    <row r="802" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S802" s="8">
-        <v>3655.2642276338884</v>
-      </c>
-    </row>
-    <row r="803" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S803" s="8">
-        <v>3788.8051501587324</v>
-      </c>
-    </row>
-    <row r="804" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S804" s="8">
-        <v>3438.1061676887111</v>
-      </c>
-    </row>
-    <row r="805" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S805" s="8">
-        <v>3477.9154893404848</v>
-      </c>
-    </row>
-    <row r="806" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S806" s="8">
-        <v>3424.6100441370072</v>
-      </c>
-    </row>
-    <row r="807" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S807" s="8">
-        <v>3382.1735175271169</v>
-      </c>
-    </row>
-    <row r="808" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S808" s="8">
-        <v>3406.6513735543776</v>
-      </c>
-    </row>
-    <row r="809" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S809" s="8">
-        <v>3687.239186299048</v>
-      </c>
-    </row>
-    <row r="810" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S810" s="8">
-        <v>3413.2428150106716</v>
-      </c>
-    </row>
-    <row r="811" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S811" s="8">
-        <v>3406.4249582589764</v>
-      </c>
-    </row>
-    <row r="812" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S812" s="8">
-        <v>3523.9553661559694</v>
-      </c>
-    </row>
-    <row r="813" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S813" s="8">
-        <v>3701.663612561897</v>
-      </c>
-    </row>
-    <row r="814" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S814" s="8">
-        <v>3662.8804444054549</v>
-      </c>
-    </row>
-    <row r="815" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S815" s="8">
-        <v>3312.582118566861</v>
-      </c>
-    </row>
-    <row r="816" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S816" s="8">
-        <v>3545.4579283187923</v>
-      </c>
-    </row>
-    <row r="817" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S817" s="8">
-        <v>3647.6334415302699</v>
-      </c>
-    </row>
-    <row r="818" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S818" s="8">
-        <v>3478.8471390603445</v>
-      </c>
-    </row>
-    <row r="819" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S819" s="8">
-        <v>3311.9347677048791</v>
-      </c>
-    </row>
-    <row r="820" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S820" s="8">
-        <v>3539.3781854301051</v>
-      </c>
-    </row>
-    <row r="821" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S821" s="8">
-        <v>3825.582081915054</v>
-      </c>
-    </row>
-    <row r="822" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S822" s="8">
-        <v>3451.934629517491</v>
-      </c>
-    </row>
-    <row r="823" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S823" s="8">
-        <v>3592.5914894524976</v>
-      </c>
-    </row>
-    <row r="824" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S824" s="8">
-        <v>3634.5474249875406</v>
-      </c>
-    </row>
-    <row r="825" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S825" s="8">
-        <v>3529.5872005254932</v>
-      </c>
-    </row>
-    <row r="826" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S826" s="8">
-        <v>3494.7019193415326</v>
-      </c>
-    </row>
-    <row r="827" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S827" s="8">
-        <v>3425.7452707398625</v>
-      </c>
-    </row>
-    <row r="828" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S828" s="8">
-        <v>3252.2954038332682</v>
-      </c>
-    </row>
-    <row r="829" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S829" s="8">
-        <v>3398.7565675280348</v>
-      </c>
-    </row>
-    <row r="830" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S830" s="8">
-        <v>3360.2025710271118</v>
-      </c>
-    </row>
-    <row r="831" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S831" s="8">
-        <v>3677.2792758957803</v>
-      </c>
-    </row>
-    <row r="832" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S832" s="8">
-        <v>3735.3573586434504</v>
-      </c>
-    </row>
-    <row r="833" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S833" s="8">
-        <v>3539.8440102900349</v>
-      </c>
-    </row>
-    <row r="834" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S834" s="8">
-        <v>3226.5391873598855</v>
-      </c>
-    </row>
-    <row r="835" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S835" s="8">
-        <v>3365.3975223179441</v>
-      </c>
-    </row>
-    <row r="836" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S836" s="8">
-        <v>3434.4014228073502</v>
-      </c>
-    </row>
-    <row r="837" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S837" s="8">
-        <v>3619.4362712895963</v>
-      </c>
-    </row>
-    <row r="838" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S838" s="8">
-        <v>3489.2559423971034</v>
-      </c>
-    </row>
-    <row r="839" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S839" s="8">
-        <v>3901.2591302499641</v>
-      </c>
-    </row>
-    <row r="840" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S840" s="8">
-        <v>3548.326117904362</v>
-      </c>
-    </row>
-    <row r="841" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S841" s="8">
-        <v>3416.7804063391668</v>
-      </c>
-    </row>
-    <row r="842" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S842" s="8">
-        <v>3682.0749487352441</v>
-      </c>
-    </row>
-    <row r="843" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S843" s="8">
-        <v>3495.086234695118</v>
-      </c>
-    </row>
-    <row r="844" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S844" s="8">
-        <v>3631.0381847916869</v>
-      </c>
-    </row>
-    <row r="845" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S845" s="8">
-        <v>3139.9477404894424</v>
-      </c>
-    </row>
-    <row r="846" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S846" s="8">
-        <v>3471.9802584751233</v>
-      </c>
-    </row>
-    <row r="847" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S847" s="8">
-        <v>3233.0434097067337</v>
-      </c>
-    </row>
-    <row r="848" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S848" s="8">
-        <v>3268.8174201458605</v>
-      </c>
-    </row>
-    <row r="849" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S849" s="8">
-        <v>3277.9208900839149</v>
-      </c>
-    </row>
-    <row r="850" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S850" s="8">
-        <v>3078.2698514277581</v>
-      </c>
-    </row>
-    <row r="851" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S851" s="8">
-        <v>3406.636213573729</v>
-      </c>
-    </row>
-    <row r="852" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S852" s="8">
-        <v>3495.5630849955196</v>
-      </c>
-    </row>
-    <row r="853" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S853" s="8">
-        <v>3664.6909792372026</v>
-      </c>
-    </row>
-    <row r="854" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S854" s="8">
-        <v>3029.1089874273166</v>
-      </c>
-    </row>
-    <row r="855" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S855" s="8">
-        <v>3561.8074752411485</v>
-      </c>
-    </row>
-    <row r="856" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S856" s="8">
-        <v>3622.6822790941878</v>
-      </c>
-    </row>
-    <row r="857" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S857" s="8">
-        <v>3363.5672991996398</v>
-      </c>
-    </row>
-    <row r="858" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S858" s="8">
-        <v>3786.6496765465126</v>
-      </c>
-    </row>
-    <row r="859" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S859" s="8">
-        <v>3447.5342974720843</v>
-      </c>
-    </row>
-    <row r="860" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S860" s="8">
-        <v>3822.0460656494834</v>
-      </c>
-    </row>
-    <row r="861" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S861" s="8">
-        <v>3598.9943171235791</v>
-      </c>
-    </row>
-    <row r="862" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S862" s="8">
-        <v>3846.9667112414027</v>
-      </c>
-    </row>
-    <row r="863" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S863" s="8">
-        <v>3341.0139731832896</v>
-      </c>
-    </row>
-    <row r="864" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S864" s="8">
-        <v>3532.9727982817712</v>
-      </c>
-    </row>
-    <row r="865" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S865" s="8">
-        <v>3191.2821913257358</v>
-      </c>
-    </row>
-    <row r="866" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S866" s="8">
-        <v>3212.3077063052915</v>
-      </c>
-    </row>
-    <row r="867" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S867" s="8">
-        <v>3461.0611347508166</v>
-      </c>
-    </row>
-    <row r="868" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S868" s="8">
-        <v>3193.4179766513989</v>
-      </c>
-    </row>
-    <row r="869" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S869" s="8">
-        <v>3559.2602047264518</v>
-      </c>
-    </row>
-    <row r="870" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S870" s="8">
-        <v>3925.7167073420715</v>
-      </c>
-    </row>
-    <row r="871" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S871" s="8">
-        <v>3428.1781523096652</v>
-      </c>
-    </row>
-    <row r="872" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S872" s="8">
-        <v>3737.9881074931473</v>
-      </c>
-    </row>
-    <row r="873" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S873" s="8">
-        <v>3379.6057711944013</v>
-      </c>
-    </row>
-    <row r="874" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S874" s="8">
-        <v>3612.1366421658604</v>
-      </c>
-    </row>
-    <row r="875" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S875" s="8">
-        <v>3447.8918367559527</v>
-      </c>
-    </row>
-    <row r="876" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S876" s="8">
-        <v>3575.2201204578523</v>
-      </c>
-    </row>
-    <row r="877" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S877" s="8">
-        <v>3655.6918572178984</v>
-      </c>
-    </row>
-    <row r="878" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S878" s="8">
-        <v>3818.5667516491958</v>
-      </c>
-    </row>
-    <row r="879" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S879" s="8">
-        <v>3509.6098899222125</v>
-      </c>
-    </row>
-    <row r="880" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S880" s="8">
-        <v>3275.7827421638649</v>
-      </c>
-    </row>
-    <row r="881" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S881" s="8">
-        <v>3404.2740129526646</v>
-      </c>
-    </row>
-    <row r="882" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S882" s="8">
-        <v>3457.6647084369324</v>
-      </c>
-    </row>
-    <row r="883" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S883" s="8">
-        <v>3341.2104622831248</v>
-      </c>
-    </row>
-    <row r="884" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S884" s="8">
-        <v>3410.9849623083574</v>
-      </c>
-    </row>
-    <row r="885" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S885" s="8">
-        <v>3597.8543653319502</v>
-      </c>
-    </row>
-    <row r="886" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S886" s="8">
-        <v>3382.3700066269521</v>
-      </c>
-    </row>
-    <row r="887" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S887" s="8">
-        <v>3480.8953115108307</v>
-      </c>
-    </row>
-    <row r="888" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S888" s="8">
-        <v>3535.9504547405959</v>
-      </c>
-    </row>
-    <row r="889" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S889" s="8">
-        <v>3695.9445590829273</v>
-      </c>
-    </row>
-    <row r="890" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S890" s="8">
-        <v>3617.659206544995</v>
-      </c>
-    </row>
-    <row r="891" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S891" s="8">
-        <v>3379.3576987837878</v>
-      </c>
-    </row>
-    <row r="892" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S892" s="8">
-        <v>3650.1499983179383</v>
-      </c>
-    </row>
-    <row r="893" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S893" s="8">
-        <v>3292.9867607227789</v>
-      </c>
-    </row>
-    <row r="894" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S894" s="8">
-        <v>3449.1278673859779</v>
-      </c>
-    </row>
-    <row r="895" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S895" s="8">
-        <v>3785.0210614825482</v>
-      </c>
-    </row>
-    <row r="896" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S896" s="8">
-        <v>3615.4895573664544</v>
-      </c>
-    </row>
-    <row r="897" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S897" s="8">
-        <v>3529.6007854432173</v>
-      </c>
-    </row>
-    <row r="898" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S898" s="8">
-        <v>3745.5940863557043</v>
-      </c>
-    </row>
-    <row r="899" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S899" s="8">
-        <v>3449.9232741628657</v>
-      </c>
-    </row>
-    <row r="900" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S900" s="8">
-        <v>3256.2291234872828</v>
-      </c>
-    </row>
-    <row r="901" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S901" s="8">
-        <v>3410.8953806045247</v>
-      </c>
-    </row>
-    <row r="902" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S902" s="8">
-        <v>3487.161108707478</v>
-      </c>
-    </row>
-    <row r="903" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S903" s="8">
-        <v>3599.6298550136271</v>
-      </c>
-    </row>
-    <row r="904" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S904" s="8">
-        <v>3391.8451914151956</v>
-      </c>
-    </row>
-    <row r="905" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S905" s="8">
-        <v>3572.9703399530263</v>
-      </c>
-    </row>
-    <row r="906" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S906" s="8">
-        <v>3323.1114142173465</v>
-      </c>
-    </row>
-    <row r="907" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S907" s="8">
-        <v>3596.8447499973263</v>
-      </c>
-    </row>
-    <row r="908" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S908" s="8">
-        <v>3394.7102308749163</v>
-      </c>
-    </row>
-    <row r="909" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S909" s="8">
-        <v>3472.5147954551358</v>
-      </c>
-    </row>
-    <row r="910" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S910" s="8">
-        <v>3338.6190900065412</v>
-      </c>
-    </row>
-    <row r="911" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S911" s="8">
-        <v>3473.6897923968354</v>
-      </c>
-    </row>
-    <row r="912" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S912" s="8">
-        <v>3340.83677860428</v>
-      </c>
-    </row>
-    <row r="913" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S913" s="8">
-        <v>3923.1367542716907</v>
-      </c>
-    </row>
-    <row r="914" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S914" s="8">
-        <v>3309.3197694844275</v>
-      </c>
-    </row>
-    <row r="915" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S915" s="8">
-        <v>3568.5530759811809</v>
-      </c>
-    </row>
-    <row r="916" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S916" s="8">
-        <v>3572.0040388488269</v>
-      </c>
-    </row>
-    <row r="917" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S917" s="8">
-        <v>3869.2286506167147</v>
-      </c>
-    </row>
-    <row r="918" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S918" s="8">
-        <v>3433.7532844139059</v>
-      </c>
-    </row>
-    <row r="919" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S919" s="8">
-        <v>3655.5693960755161</v>
-      </c>
-    </row>
-    <row r="920" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S920" s="8">
-        <v>3512.0579314726638</v>
-      </c>
-    </row>
-    <row r="921" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S921" s="8">
-        <v>3789.7588507595356</v>
-      </c>
-    </row>
-    <row r="922" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S922" s="8">
-        <v>3735.7397051683802</v>
-      </c>
-    </row>
-    <row r="923" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S923" s="8">
-        <v>3336.5766271591565</v>
-      </c>
-    </row>
-    <row r="924" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S924" s="8">
-        <v>3271.2508923642599</v>
-      </c>
-    </row>
-    <row r="925" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S925" s="8">
-        <v>3390.3224993329059</v>
-      </c>
-    </row>
-    <row r="926" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S926" s="8">
-        <v>3418.6389805901126</v>
-      </c>
-    </row>
-    <row r="927" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S927" s="8">
-        <v>3651.5801554534119</v>
-      </c>
-    </row>
-    <row r="928" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S928" s="8">
-        <v>3576.6534277191749</v>
-      </c>
-    </row>
-    <row r="929" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S929" s="8">
-        <v>3589.8243007769634</v>
-      </c>
-    </row>
-    <row r="930" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S930" s="8">
-        <v>3482.8481926543827</v>
-      </c>
-    </row>
-    <row r="931" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S931" s="8">
-        <v>3192.019320774416</v>
-      </c>
-    </row>
-    <row r="932" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S932" s="8">
-        <v>3250.406115855294</v>
-      </c>
-    </row>
-    <row r="933" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S933" s="8">
-        <v>3384.6680234338419</v>
-      </c>
-    </row>
-    <row r="934" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S934" s="8">
-        <v>3599.8842276759387</v>
-      </c>
-    </row>
-    <row r="935" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S935" s="8">
-        <v>3202.4163111392409</v>
-      </c>
-    </row>
-    <row r="936" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S936" s="8">
-        <v>3329.5404273095482</v>
-      </c>
-    </row>
-    <row r="937" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S937" s="8">
-        <v>3449.7313133689386</v>
-      </c>
-    </row>
-    <row r="938" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S938" s="8">
-        <v>3733.8051341313258</v>
-      </c>
-    </row>
-    <row r="939" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S939" s="8">
-        <v>3382.4519098990277</v>
-      </c>
-    </row>
-    <row r="940" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S940" s="8">
-        <v>3508.1612257973757</v>
-      </c>
-    </row>
-    <row r="941" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S941" s="8">
-        <v>3419.8927306780388</v>
-      </c>
-    </row>
-    <row r="942" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S942" s="8">
-        <v>3167.3207590548554</v>
-      </c>
-    </row>
-    <row r="943" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S943" s="8">
-        <v>3377.2963351813087</v>
-      </c>
-    </row>
-    <row r="944" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S944" s="8">
-        <v>3406.5003643964883</v>
-      </c>
-    </row>
-    <row r="945" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S945" s="8">
-        <v>3522.2505574230308</v>
-      </c>
-    </row>
-    <row r="946" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S946" s="8">
-        <v>3406.6966566134579</v>
-      </c>
-    </row>
-    <row r="947" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S947" s="8">
-        <v>3557.1362323727226</v>
-      </c>
-    </row>
-    <row r="948" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S948" s="8">
-        <v>3286.4884448618977</v>
-      </c>
-    </row>
-    <row r="949" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S949" s="8">
-        <v>3378.8438345046598</v>
-      </c>
-    </row>
-    <row r="950" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S950" s="8">
-        <v>3570.9668599130237</v>
-      </c>
-    </row>
-    <row r="951" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S951" s="8">
-        <v>3722.4946072702733</v>
-      </c>
-    </row>
-    <row r="952" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S952" s="8">
-        <v>3399.4976346340263</v>
-      </c>
-    </row>
-    <row r="953" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S953" s="8">
-        <v>3565.5769945852808</v>
-      </c>
-    </row>
-    <row r="954" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S954" s="8">
-        <v>3251.5145663884323</v>
-      </c>
-    </row>
-    <row r="955" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S955" s="8">
-        <v>3478.6476967175258</v>
-      </c>
-    </row>
-    <row r="956" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S956" s="8">
-        <v>3356.1845855066349</v>
-      </c>
-    </row>
-    <row r="957" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S957" s="8">
-        <v>3381.7145835674819</v>
-      </c>
-    </row>
-    <row r="958" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S958" s="8">
-        <v>3640.1184225516045</v>
-      </c>
-    </row>
-    <row r="959" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S959" s="8">
-        <v>3836.4547412830871</v>
-      </c>
-    </row>
-    <row r="960" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S960" s="8">
-        <v>3143.1372429116163</v>
-      </c>
-    </row>
-    <row r="961" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S961" s="8">
-        <v>3583.3334664649738</v>
-      </c>
-    </row>
-    <row r="962" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S962" s="8">
-        <v>3302.2942013095599</v>
-      </c>
-    </row>
-    <row r="963" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S963" s="8">
-        <v>3388.7917350531279</v>
-      </c>
-    </row>
-    <row r="964" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S964" s="8">
-        <v>3502.852082444515</v>
-      </c>
-    </row>
-    <row r="965" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S965" s="8">
-        <v>3384.9763420013187</v>
-      </c>
-    </row>
-    <row r="966" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S966" s="8">
-        <v>3567.5828372196702</v>
-      </c>
-    </row>
-    <row r="967" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S967" s="8">
-        <v>3617.0299689066451</v>
-      </c>
-    </row>
-    <row r="968" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S968" s="8">
-        <v>3490.0645403259841</v>
-      </c>
-    </row>
-    <row r="969" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S969" s="8">
-        <v>3100.0813228066545</v>
-      </c>
-    </row>
-    <row r="970" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S970" s="8">
-        <v>3494.9535356437264</v>
-      </c>
-    </row>
-    <row r="971" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S971" s="8">
-        <v>3642.7133387197682</v>
-      </c>
-    </row>
-    <row r="972" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S972" s="8">
-        <v>3388.5997742592008</v>
-      </c>
-    </row>
-    <row r="973" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S973" s="8">
-        <v>3344.8319257123512</v>
-      </c>
-    </row>
-    <row r="974" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S974" s="8">
-        <v>3540.213953194434</v>
-      </c>
-    </row>
-    <row r="975" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S975" s="8">
-        <v>3705.3555600569962</v>
-      </c>
-    </row>
-    <row r="976" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S976" s="8">
-        <v>3653.7458669746411</v>
-      </c>
-    </row>
-    <row r="977" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S977" s="8">
-        <v>3327.9019681023055</v>
-      </c>
-    </row>
-    <row r="978" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S978" s="8">
-        <v>3574.1008413671079</v>
-      </c>
-    </row>
-    <row r="979" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S979" s="8">
-        <v>3208.5251926920319</v>
-      </c>
-    </row>
-    <row r="980" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S980" s="8">
-        <v>3259.7108000819571</v>
-      </c>
-    </row>
-    <row r="981" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S981" s="8">
-        <v>3467.4543151614853</v>
-      </c>
-    </row>
-    <row r="982" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S982" s="8">
-        <v>3581.3327427850891</v>
-      </c>
-    </row>
-    <row r="983" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S983" s="8">
-        <v>3466.568342266437</v>
-      </c>
-    </row>
-    <row r="984" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S984" s="8">
-        <v>3761.2360362592153</v>
-      </c>
-    </row>
-    <row r="985" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S985" s="8">
-        <v>3807.6877920294646</v>
-      </c>
-    </row>
-    <row r="986" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S986" s="8">
-        <v>3520.1466671215894</v>
-      </c>
-    </row>
-    <row r="987" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S987" s="8">
-        <v>3458.4778346717212</v>
-      </c>
-    </row>
-    <row r="988" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S988" s="8">
-        <v>3473.9435744105504</v>
-      </c>
-    </row>
-    <row r="989" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S989" s="8">
-        <v>3465.1171186643478</v>
-      </c>
-    </row>
-    <row r="990" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S990" s="8">
-        <v>3842.7864942396991</v>
-      </c>
-    </row>
-    <row r="991" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S991" s="8">
-        <v>3320.3798613404797</v>
-      </c>
-    </row>
-    <row r="992" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S992" s="8">
-        <v>3669.0924925798026</v>
-      </c>
-    </row>
-    <row r="993" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S993" s="8">
-        <v>3534.5076971017261</v>
-      </c>
-    </row>
-    <row r="994" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S994" s="8">
-        <v>3082.0059006847441</v>
-      </c>
-    </row>
-    <row r="995" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S995" s="8">
-        <v>3185.5694380984642</v>
-      </c>
-    </row>
-    <row r="996" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S996" s="8">
-        <v>3640.8161754271714</v>
-      </c>
-    </row>
-    <row r="997" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S997" s="8">
-        <v>3437.2385049001605</v>
-      </c>
-    </row>
-    <row r="998" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S998" s="8">
-        <v>3439.586136189173</v>
-      </c>
-    </row>
-    <row r="999" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S999" s="8">
-        <v>3677.833698045215</v>
-      </c>
-    </row>
-    <row r="1000" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S1000" s="8">
-        <v>3506.1691649635759</v>
-      </c>
-    </row>
-    <row r="1001" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S1001" s="8">
-        <v>3704.9409247421136</v>
-      </c>
-    </row>
-    <row r="1002" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S1002" s="8">
-        <v>3211.854875714489</v>
-      </c>
-    </row>
-    <row r="1003" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S1003" s="8">
-        <v>3343.4576833106985</v>
-      </c>
-    </row>
-    <row r="1004" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S1004" s="8">
-        <v>3377.6798630034318</v>
-      </c>
-    </row>
-    <row r="1005" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S1005" s="8">
-        <v>3168.5036313111777</v>
-      </c>
-    </row>
-    <row r="1006" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S1006" s="8">
-        <v>3320.4019122214231</v>
-      </c>
-    </row>
-    <row r="1007" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S1007" s="8">
-        <v>3684.1300120860251</v>
-      </c>
-    </row>
-    <row r="1008" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S1008" s="8">
-        <v>3496.4904032923369</v>
-      </c>
-    </row>
-    <row r="1009" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S1009" s="8">
-        <v>3610.9073055532645</v>
       </c>
     </row>
   </sheetData>
@@ -26306,7 +22051,7 @@
     <sortCondition ref="E48"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -33915,7 +29660,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34267,8 +30012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B553DA5-F92C-4D37-9D1B-4260F27E313A}">
   <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34283,7 +30028,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
         <v>49</v>
@@ -34391,7 +30136,7 @@
         <v>2.0871028399282204E-4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -34403,13 +30148,13 @@
         <v>2.2482021395084251E-4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -34421,7 +30166,7 @@
         <v>2.5485012869826628E-4</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F13" s="2">
         <v>6</v>
@@ -34439,7 +30184,7 @@
         <v>2.5706617156702921E-4</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F14" s="2">
         <v>29</v>
@@ -34457,7 +30202,7 @@
         <v>2.844503826162044E-4</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F15" s="2">
         <v>76</v>
@@ -34475,7 +30220,7 @@
         <v>2.8553165408404778E-4</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F16" s="2">
         <v>155</v>
@@ -34493,7 +30238,7 @@
         <v>2.8697820899233561E-4</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F17" s="2">
         <v>223</v>
@@ -34511,7 +30256,7 @@
         <v>2.9522992526724725E-4</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F18" s="2">
         <v>232</v>
@@ -34529,7 +30274,7 @@
         <v>2.9701972480042935E-4</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F19" s="2">
         <v>157</v>
@@ -34547,7 +30292,7 @@
         <v>3.0165181625658766E-4</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F20" s="2">
         <v>80</v>
@@ -34565,7 +30310,7 @@
         <v>3.0556078853612216E-4</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F21" s="2">
         <v>33</v>
@@ -34583,7 +30328,7 @@
         <v>3.1369231142134153E-4</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F22" s="2">
         <v>7</v>
@@ -34601,7 +30346,7 @@
         <v>3.1931436704385198E-4</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F23" s="2">
         <v>2</v>
@@ -34654,13 +30399,13 @@
         <f t="shared" si="0"/>
         <v>4.2642334045119815E-4</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="15" t="s">
+      <c r="E27" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -34673,7 +30418,7 @@
         <v>4.4093364075427908E-4</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F28" s="2">
         <v>6</v>
@@ -34691,7 +30436,7 @@
         <v>4.4989218616680996E-4</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F29" s="2">
         <v>29</v>
@@ -34709,7 +30454,7 @@
         <v>4.5529995860447476E-4</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F30" s="2">
         <v>76</v>
@@ -34727,7 +30472,7 @@
         <v>4.6448938363312299E-4</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F31" s="2">
         <v>155</v>
@@ -34745,7 +30490,7 @@
         <v>4.8082094382107768E-4</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F32" s="2">
         <v>223</v>
@@ -34763,7 +30508,7 @@
         <v>4.9975763166246006E-4</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F33" s="2">
         <v>232</v>
@@ -34781,7 +30526,7 @@
         <v>5.0806235141698697E-4</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F34" s="2">
         <v>157</v>
@@ -34799,7 +30544,7 @@
         <v>5.2727544368342161E-4</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F35" s="2">
         <v>80</v>
@@ -34817,7 +30562,7 @@
         <v>5.3875019844347883E-4</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F36" s="2">
         <v>33</v>
@@ -34835,7 +30580,7 @@
         <v>5.4744822482787601E-4</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F37" s="2">
         <v>7</v>
@@ -34853,7 +30598,7 @@
         <v>5.5996524813017694E-4</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F38" s="2">
         <v>2</v>
@@ -35086,9 +30831,9 @@
         <f t="shared" si="0"/>
         <v>8.1046951422117212E-4</v>
       </c>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
@@ -35098,7 +30843,7 @@
         <f t="shared" si="0"/>
         <v>8.1097860240650734E-4</v>
       </c>
-      <c r="E64" s="17"/>
+      <c r="E64" s="14"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
@@ -35110,7 +30855,7 @@
         <f t="shared" si="0"/>
         <v>8.2520360093259063E-4</v>
       </c>
-      <c r="E65" s="17"/>
+      <c r="E65" s="14"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
@@ -35122,7 +30867,7 @@
         <f t="shared" si="0"/>
         <v>8.4381606278458477E-4</v>
       </c>
-      <c r="E66" s="17"/>
+      <c r="E66" s="14"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
@@ -35134,7 +30879,7 @@
         <f t="shared" ref="B67:B130" si="1">_xlfn.NORM.DIST(A67,$F$4,$F$5,FALSE)</f>
         <v>8.4831100313076868E-4</v>
       </c>
-      <c r="E67" s="17"/>
+      <c r="E67" s="14"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
@@ -35146,7 +30891,7 @@
         <f t="shared" si="1"/>
         <v>8.5727082993386819E-4</v>
       </c>
-      <c r="E68" s="17"/>
+      <c r="E68" s="14"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
@@ -35158,7 +30903,7 @@
         <f t="shared" si="1"/>
         <v>8.6222466652269021E-4</v>
       </c>
-      <c r="E69" s="17"/>
+      <c r="E69" s="14"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
@@ -35170,7 +30915,7 @@
         <f t="shared" si="1"/>
         <v>8.6642606845403855E-4</v>
       </c>
-      <c r="E70" s="17"/>
+      <c r="E70" s="14"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
@@ -35182,7 +30927,7 @@
         <f t="shared" si="1"/>
         <v>8.6667417006653898E-4</v>
       </c>
-      <c r="E71" s="17"/>
+      <c r="E71" s="14"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
@@ -35194,7 +30939,7 @@
         <f t="shared" si="1"/>
         <v>8.8556945330725122E-4</v>
       </c>
-      <c r="E72" s="17"/>
+      <c r="E72" s="14"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
@@ -35206,7 +30951,7 @@
         <f t="shared" si="1"/>
         <v>8.8703534608455489E-4</v>
       </c>
-      <c r="E73" s="17"/>
+      <c r="E73" s="14"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
@@ -35218,7 +30963,7 @@
         <f t="shared" si="1"/>
         <v>8.9190389956569709E-4</v>
       </c>
-      <c r="E74" s="17"/>
+      <c r="E74" s="14"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
@@ -43689,18 +39434,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -43720,14 +39465,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7FF9657-D513-4BB1-92D3-7BCFDEAE47D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0005FAD-6920-4987-ACAF-002ADF9773DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -43740,4 +39477,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7FF9657-D513-4BB1-92D3-7BCFDEAE47D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>